--- a/prep_data.xlsx
+++ b/prep_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongjiadong/Desktop/mcm23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\mcm23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51616251-B743-AA46-AAE0-03FE1D704B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A7B05A-E286-42F6-90CF-3C743F1C85EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1039,9 +1039,6 @@
     <t>knock</t>
   </si>
   <si>
-    <t>naïve</t>
-  </si>
-  <si>
     <t>apply</t>
   </si>
   <si>
@@ -1132,6 +1129,10 @@
   </si>
   <si>
     <t>Contest_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>naive</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1142,7 +1143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,7 +1210,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1225,7 +1226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1547,53 +1548,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="D335" sqref="D335"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
     <col min="16" max="16" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
@@ -1605,7 +1606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>358</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>1.689197569142999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>357</v>
       </c>
@@ -1705,7 +1706,7 @@
         <v>1.7368944760253389E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>356</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>2.0912360484056099E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>355</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>2.092706330389979E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>354</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>1.960618663893943E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>352</v>
       </c>
@@ -1905,7 +1906,7 @@
         <v>2.520229646037702E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>351</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>2.3512543956951688E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>350</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>2.2610258402953179E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>349</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>2.363925213134932E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>348</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>2.538288095698862E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>347</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>2.80878026702874E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>346</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>2.5279557554290111E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>345</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>2.7008083159810459E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>344</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>2.7067114314627352E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>343</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>2.8365681252562228E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>342</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>2.8266692352433419E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>341</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>3.2231686805819303E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>340</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>3.1504609195235962E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>339</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>3.3613584346514611E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>338</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>3.4507178071624019E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>337</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>3.7539398184316147E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>336</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>3.7009130962262937E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>335</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>3.9105898801100832E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>334</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>3.9104753980205909E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>333</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>3.8690450800908827E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>332</v>
       </c>
@@ -2905,7 +2906,7 @@
         <v>3.9250306707782089E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>331</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>4.0787210756722952E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>330</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>4.1183944572799627E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>329</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>4.287796608048846E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>328</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>4.4100341459336757E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>327</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>4.6282803891363779E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>326</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>4.5708966321274337E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>325</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>4.5341419645547068E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>324</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>4.422136928779976E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>323</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>3.8127721231162093E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>322</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>3.4496174296459597E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>320</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>3.9549405210289039E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>319</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>3.5933656665601242E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>318</v>
       </c>
@@ -3555,7 +3556,7 @@
         <v>3.7070146796400673E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>317</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>3.7330081899866377E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>316</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>3.853143214773147E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>315</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>3.9815533052099158E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>314</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>4.0591864064455217E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>313</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>3.9059164570858639E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>312</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>3.856297901787463E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>311</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>4.1109461913133701E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>310</v>
       </c>
@@ -3955,7 +3956,7 @@
         <v>4.1508094178095853E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>309</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>4.5668934417581387E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>308</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>4.0613940079641503E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>307</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>4.1683139453622613E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>306</v>
       </c>
@@ -4155,7 +4156,7 @@
         <v>4.1900642787163371E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>305</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>4.4045690584957747E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>304</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>4.2024220377452362E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>303</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>4.3600896599421707E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>302</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>4.6119864526579298E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>301</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>4.5259792513973773E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>300</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>4.533955488460395E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>299</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>4.493698392003477E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>298</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>4.7076005070539301E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>297</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>4.6754443778214957E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>296</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>4.7681967024760151E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>295</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>5.4782658637767337E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>294</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>4.8701112736853618E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>293</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>4.9806058984819102E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>292</v>
       </c>
@@ -4855,7 +4856,7 @@
         <v>5.0553919506380593E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>291</v>
       </c>
@@ -4905,7 +4906,7 @@
         <v>4.94146064923221E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>290</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>5.1566172150411281E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>289</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>5.2327128839363343E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>288</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>5.1737752321637097E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>287</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>5.4474733064211731E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>286</v>
       </c>
@@ -5155,7 +5156,7 @@
         <v>5.4307780652570858E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>285</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>5.2984404155820217E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>284</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>5.4988417904483611E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>283</v>
       </c>
@@ -5305,7 +5306,7 @@
         <v>5.4565168861817143E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>282</v>
       </c>
@@ -5355,7 +5356,7 @@
         <v>5.5114570641051422E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>281</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>5.7005133258320739E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>280</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>6.2712782679071877E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>279</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>6.0041820775013903E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>278</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>6.1101004053058218E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>277</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>5.6979942308982359E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>276</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>5.8922846356686209E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>275</v>
       </c>
@@ -5705,7 +5706,7 @@
         <v>6.2631730747897851E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>274</v>
       </c>
@@ -5755,7 +5756,7 @@
         <v>6.1618549858967968E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>273</v>
       </c>
@@ -5805,7 +5806,7 @@
         <v>6.0066159828216593E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>272</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>6.3686442038993998E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>271</v>
       </c>
@@ -5905,7 +5906,7 @@
         <v>6.1264471542834223E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>270</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>6.3466165661359972E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>269</v>
       </c>
@@ -6005,7 +6006,7 @@
         <v>6.4146076568015201E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>268</v>
       </c>
@@ -6055,7 +6056,7 @@
         <v>6.4325201042790062E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>267</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>6.3829184318281648E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>266</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>6.3609269055957082E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>265</v>
       </c>
@@ -6205,7 +6206,7 @@
         <v>6.2531190342281828E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>264</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>6.5884838110500055E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>263</v>
       </c>
@@ -6305,7 +6306,7 @@
         <v>6.3312069760763048E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>262</v>
       </c>
@@ -6355,7 +6356,7 @@
         <v>6.3567400916798508E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>261</v>
       </c>
@@ -6405,7 +6406,7 @@
         <v>6.4840279246879629E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>260</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>6.5558384811256171E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>259</v>
       </c>
@@ -6505,7 +6506,7 @@
         <v>6.5146730624982635E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>258</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>6.5691172748661902E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>257</v>
       </c>
@@ -6605,7 +6606,7 @@
         <v>6.5321267451482881E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>256</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>7.5280764745314463E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>255</v>
       </c>
@@ -6705,7 +6706,7 @@
         <v>6.6622878822041626E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>254</v>
       </c>
@@ -6755,7 +6756,7 @@
         <v>7.1053034556684186E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>253</v>
       </c>
@@ -6805,7 +6806,7 @@
         <v>6.4839975845410625E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>252</v>
       </c>
@@ -6855,7 +6856,7 @@
         <v>6.7830309118687343E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>251</v>
       </c>
@@ -6905,7 +6906,7 @@
         <v>6.9193038624143166E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>250</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>7.1536243282212614E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>249</v>
       </c>
@@ -7005,7 +7006,7 @@
         <v>6.6212325380745105E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>248</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>6.632513868259117E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>247</v>
       </c>
@@ -7105,7 +7106,7 @@
         <v>7.0975790680423492E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>245</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>7.3713633624392552E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>244</v>
       </c>
@@ -7205,7 +7206,7 @@
         <v>7.3385871384789719E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>243</v>
       </c>
@@ -7255,7 +7256,7 @@
         <v>6.8274729985466784E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>242</v>
       </c>
@@ -7305,7 +7306,7 @@
         <v>6.9228707598727526E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>241</v>
       </c>
@@ -7355,7 +7356,7 @@
         <v>6.7220417633410676E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>240</v>
       </c>
@@ -7405,7 +7406,7 @@
         <v>7.3424906081717631E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>239</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>7.1855502542861632E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>238</v>
       </c>
@@ -7505,7 +7506,7 @@
         <v>7.0281232372612745E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>237</v>
       </c>
@@ -7555,7 +7556,7 @@
         <v>7.2478557047905345E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>236</v>
       </c>
@@ -7605,7 +7606,7 @@
         <v>6.9108982143660319E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>235</v>
       </c>
@@ -7655,7 +7656,7 @@
         <v>7.3764984142342629E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>234</v>
       </c>
@@ -7705,7 +7706,7 @@
         <v>7.1595800921380556E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>233</v>
       </c>
@@ -7755,7 +7756,7 @@
         <v>7.1610746237099093E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>232</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>7.1173551588580269E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>231</v>
       </c>
@@ -7855,7 +7856,7 @@
         <v>7.224308637760328E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>230</v>
       </c>
@@ -7905,7 +7906,7 @@
         <v>7.3947701706026964E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>229</v>
       </c>
@@ -7955,7 +7956,7 @@
         <v>7.5772871585538928E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>228</v>
       </c>
@@ -8005,7 +8006,7 @@
         <v>7.2707219818444052E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>227</v>
       </c>
@@ -8055,7 +8056,7 @@
         <v>7.4986812384185683E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>226</v>
       </c>
@@ -8105,7 +8106,7 @@
         <v>7.2786238014664412E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>225</v>
       </c>
@@ -8155,7 +8156,7 @@
         <v>7.4952778890733221E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>224</v>
       </c>
@@ -8205,7 +8206,7 @@
         <v>7.4430508576046939E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>223</v>
       </c>
@@ -8255,7 +8256,7 @@
         <v>7.2567700893843234E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>222</v>
       </c>
@@ -8305,7 +8306,7 @@
         <v>7.3851063509506099E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>221</v>
       </c>
@@ -8355,7 +8356,7 @@
         <v>7.5875670558535821E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>220</v>
       </c>
@@ -8405,7 +8406,7 @@
         <v>7.708496085965276E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>219</v>
       </c>
@@ -8455,7 +8456,7 @@
         <v>7.4903462682787872E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>218</v>
       </c>
@@ -8505,7 +8506,7 @@
         <v>7.5838736960811948E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>217</v>
       </c>
@@ -8555,7 +8556,7 @@
         <v>7.5945995438578967E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>216</v>
       </c>
@@ -8605,7 +8606,7 @@
         <v>7.8027410756698751E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>215</v>
       </c>
@@ -8655,7 +8656,7 @@
         <v>7.7760829273893287E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>214</v>
       </c>
@@ -8705,7 +8706,7 @@
         <v>7.6503951057863881E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>213</v>
       </c>
@@ -8755,7 +8756,7 @@
         <v>7.5852690501415215E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>212</v>
       </c>
@@ -8805,7 +8806,7 @@
         <v>7.7841966121609707E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>211</v>
       </c>
@@ -8855,7 +8856,7 @@
         <v>7.5759196711039103E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>210</v>
       </c>
@@ -8905,7 +8906,7 @@
         <v>7.6068860168546082E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>209</v>
       </c>
@@ -8955,7 +8956,7 @@
         <v>7.6298071838979173E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>208</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>7.7772837648346388E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>207</v>
       </c>
@@ -9055,7 +9056,7 @@
         <v>7.5265718499432116E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>206</v>
       </c>
@@ -9105,7 +9106,7 @@
         <v>7.5492413069839087E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>205</v>
       </c>
@@ -9155,7 +9156,7 @@
         <v>7.7724091969343559E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>204</v>
       </c>
@@ -9205,7 +9206,7 @@
         <v>7.8084368679572372E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>203</v>
       </c>
@@ -9255,7 +9256,7 @@
         <v>7.8659686670002699E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>202</v>
       </c>
@@ -9305,7 +9306,7 @@
         <v>7.6264907204854987E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>201</v>
       </c>
@@ -9355,7 +9356,7 @@
         <v>7.6985985651091035E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>200</v>
       </c>
@@ -9405,7 +9406,7 @@
         <v>7.9409018143009602E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>199</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>7.8426119416313916E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>198</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>7.6960509077297401E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>197</v>
       </c>
@@ -9555,7 +9556,7 @@
         <v>7.7764565992865631E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>196</v>
       </c>
@@ -9605,7 +9606,7 @@
         <v>8.6876390212901181E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>195</v>
       </c>
@@ -9655,7 +9656,7 @@
         <v>7.9463140591412421E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>194</v>
       </c>
@@ -9705,7 +9706,7 @@
         <v>7.8242611520481731E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>193</v>
       </c>
@@ -9755,7 +9756,7 @@
         <v>7.86247234824341E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>192</v>
       </c>
@@ -9805,7 +9806,7 @@
         <v>8.1036834924965898E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>191</v>
       </c>
@@ -9855,7 +9856,7 @@
         <v>7.7535727062190501E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>190</v>
       </c>
@@ -9905,7 +9906,7 @@
         <v>7.8847027678447951E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>189</v>
       </c>
@@ -9955,7 +9956,7 @@
         <v>7.962854477207143E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>188</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>7.8374628344895933E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>187</v>
       </c>
@@ -10055,7 +10056,7 @@
         <v>8.019005543283457E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>186</v>
       </c>
@@ -10105,7 +10106,7 @@
         <v>8.1247886371322284E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>185</v>
       </c>
@@ -10155,7 +10156,7 @@
         <v>8.6690765691751562E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>184</v>
       </c>
@@ -10205,7 +10206,7 @@
         <v>8.4999547634126482E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>183</v>
       </c>
@@ -10255,7 +10256,7 @@
         <v>8.0257365391127669E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>182</v>
       </c>
@@ -10305,7 +10306,7 @@
         <v>8.4161379145217291E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>181</v>
       </c>
@@ -10355,7 +10356,7 @@
         <v>8.5486340957367984E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>180</v>
       </c>
@@ -10405,7 +10406,7 @@
         <v>8.4206823777699613E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>179</v>
       </c>
@@ -10455,7 +10456,7 @@
         <v>8.0847054600924229E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -10505,7 +10506,7 @@
         <v>8.5522980736735379E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>177</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>8.4571612873499666E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>176</v>
       </c>
@@ -10605,7 +10606,7 @@
         <v>8.1390459281409144E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>175</v>
       </c>
@@ -10655,7 +10656,7 @@
         <v>8.35138234169958E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>174</v>
       </c>
@@ -10705,7 +10706,7 @@
         <v>8.361852339356228E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>173</v>
       </c>
@@ -10755,7 +10756,7 @@
         <v>8.4597360956961395E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>172</v>
       </c>
@@ -10805,7 +10806,7 @@
         <v>8.2498401193775314E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>171</v>
       </c>
@@ -10855,7 +10856,7 @@
         <v>8.0590753794922809E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>170</v>
       </c>
@@ -10905,7 +10906,7 @@
         <v>8.3553231892278479E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:16">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>169</v>
       </c>
@@ -10955,7 +10956,7 @@
         <v>8.5461589437732577E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:16">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>168</v>
       </c>
@@ -11005,7 +11006,7 @@
         <v>8.4603678196497195E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>167</v>
       </c>
@@ -11055,7 +11056,7 @@
         <v>8.444623968089672E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>166</v>
       </c>
@@ -11105,7 +11106,7 @@
         <v>8.33372480856861E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>165</v>
       </c>
@@ -11155,7 +11156,7 @@
         <v>8.4654750800413445E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>164</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v>8.7245779766555384E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>163</v>
       </c>
@@ -11255,7 +11256,7 @@
         <v>8.6143376144911216E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>162</v>
       </c>
@@ -11305,7 +11306,7 @@
         <v>8.5036775795262073E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>161</v>
       </c>
@@ -11355,7 +11356,7 @@
         <v>8.4609317631700612E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:16">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>160</v>
       </c>
@@ -11405,7 +11406,7 @@
         <v>8.5424358877753501E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:16">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>159</v>
       </c>
@@ -11455,7 +11456,7 @@
         <v>8.5117773019271953E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:16">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>158</v>
       </c>
@@ -11505,7 +11506,7 @@
         <v>8.953052002757142E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>157</v>
       </c>
@@ -11555,7 +11556,7 @@
         <v>8.558253438932889E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>156</v>
       </c>
@@ -11605,7 +11606,7 @@
         <v>8.5854858548585489E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>155</v>
       </c>
@@ -11655,7 +11656,7 @@
         <v>8.5020242914979755E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>154</v>
       </c>
@@ -11705,7 +11706,7 @@
         <v>8.4892779696409931E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>153</v>
       </c>
@@ -11755,7 +11756,7 @@
         <v>8.58343949044586E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>152</v>
       </c>
@@ -11805,7 +11806,7 @@
         <v>9.0093284599858159E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>151</v>
       </c>
@@ -11855,7 +11856,7 @@
         <v>9.6823168810335439E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:16">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>150</v>
       </c>
@@ -11905,7 +11906,7 @@
         <v>8.6683515280998408E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:16">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>149</v>
       </c>
@@ -11955,7 +11956,7 @@
         <v>8.9607563995809714E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:16">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>148</v>
       </c>
@@ -12005,7 +12006,7 @@
         <v>9.1780455153949128E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>147</v>
       </c>
@@ -12055,7 +12056,7 @@
         <v>8.7407636260652399E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>146</v>
       </c>
@@ -12105,7 +12106,7 @@
         <v>8.8065593683571211E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>145</v>
       </c>
@@ -12155,7 +12156,7 @@
         <v>8.9734204302286291E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>144</v>
       </c>
@@ -12205,7 +12206,7 @@
         <v>8.3344836153824917E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>143</v>
       </c>
@@ -12255,7 +12256,7 @@
         <v>8.7958782599458218E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>142</v>
       </c>
@@ -12305,7 +12306,7 @@
         <v>8.6941368864105514E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>141</v>
       </c>
@@ -12355,7 +12356,7 @@
         <v>8.9946780513480318E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>140</v>
       </c>
@@ -12405,7 +12406,7 @@
         <v>9.0288014514117249E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>139</v>
       </c>
@@ -12455,7 +12456,7 @@
         <v>9.3769745987615311E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:16">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>138</v>
       </c>
@@ -12505,7 +12506,7 @@
         <v>8.9891451831750332E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>137</v>
       </c>
@@ -12555,7 +12556,7 @@
         <v>8.7936191425722829E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:16">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>136</v>
       </c>
@@ -12605,7 +12606,7 @@
         <v>8.8594164456233415E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>135</v>
       </c>
@@ -12655,7 +12656,7 @@
         <v>9.0789398362814133E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:16">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>134</v>
       </c>
@@ -12705,7 +12706,7 @@
         <v>8.7943471220373909E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:16">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>133</v>
       </c>
@@ -12755,7 +12756,7 @@
         <v>8.4952281343966526E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:16">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>132</v>
       </c>
@@ -12805,7 +12806,7 @@
         <v>8.9451666339107727E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:16">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>131</v>
       </c>
@@ -12855,7 +12856,7 @@
         <v>8.7020731163620149E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>130</v>
       </c>
@@ -12905,7 +12906,7 @@
         <v>8.7424364362574142E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:16">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>129</v>
       </c>
@@ -12955,7 +12956,7 @@
         <v>8.6854599406528191E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:16">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>128</v>
       </c>
@@ -13005,7 +13006,7 @@
         <v>8.642512997795139E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:16">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>127</v>
       </c>
@@ -13055,7 +13056,7 @@
         <v>8.7740523101739826E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:16">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>126</v>
       </c>
@@ -13105,7 +13106,7 @@
         <v>8.9113664735443812E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:16">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>125</v>
       </c>
@@ -13155,7 +13156,7 @@
         <v>9.4856688952141388E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:16">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>124</v>
       </c>
@@ -13205,7 +13206,7 @@
         <v>8.9612321694232958E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:16">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>123</v>
       </c>
@@ -13255,7 +13256,7 @@
         <v>8.9393939393939401E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:16">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>122</v>
       </c>
@@ -13305,7 +13306,7 @@
         <v>8.9579266049854292E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>121</v>
       </c>
@@ -13355,7 +13356,7 @@
         <v>9.1778202676864248E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:16">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>120</v>
       </c>
@@ -13405,7 +13406,7 @@
         <v>8.8148023737543393E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:16">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>119</v>
       </c>
@@ -13455,7 +13456,7 @@
         <v>9.2238145618928541E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>118</v>
       </c>
@@ -13505,7 +13506,7 @@
         <v>9.0230495346367665E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>117</v>
       </c>
@@ -13555,7 +13556,7 @@
         <v>9.0734121528732475E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>116</v>
       </c>
@@ -13605,7 +13606,7 @@
         <v>9.2319912018085176E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>115</v>
       </c>
@@ -13655,7 +13656,7 @@
         <v>9.2701342281879193E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>114</v>
       </c>
@@ -13705,7 +13706,7 @@
         <v>9.3892747637819907E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>113</v>
       </c>
@@ -13755,7 +13756,7 @@
         <v>9.0420241203531024E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:16">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>112</v>
       </c>
@@ -13805,7 +13806,7 @@
         <v>9.4982385333652566E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:16">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>111</v>
       </c>
@@ -13855,7 +13856,7 @@
         <v>9.5922831426829711E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:16">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>110</v>
       </c>
@@ -13905,7 +13906,7 @@
         <v>9.8912409510412733E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:16">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>109</v>
       </c>
@@ -13955,7 +13956,7 @@
         <v>9.1738142861985963E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>108</v>
       </c>
@@ -14005,7 +14006,7 @@
         <v>9.1406881961296746E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>107</v>
       </c>
@@ -14055,7 +14056,7 @@
         <v>9.0301103646833011E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>106</v>
       </c>
@@ -14105,7 +14106,7 @@
         <v>0.1106971508215176</v>
       </c>
     </row>
-    <row r="252" spans="1:16">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>105</v>
       </c>
@@ -14155,7 +14156,7 @@
         <v>9.1956430666108091E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>104</v>
       </c>
@@ -14205,7 +14206,7 @@
         <v>9.1776931907437617E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:16">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>103</v>
       </c>
@@ -14255,7 +14256,7 @@
         <v>9.7860199714693299E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:16">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>102</v>
       </c>
@@ -14305,7 +14306,7 @@
         <v>9.0897464590593724E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:16">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>101</v>
       </c>
@@ -14355,7 +14356,7 @@
         <v>9.0693019764823621E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>100</v>
       </c>
@@ -14405,7 +14406,7 @@
         <v>9.0523871716731971E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:16">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>99</v>
       </c>
@@ -14455,7 +14456,7 @@
         <v>9.1815036973563108E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:16">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>98</v>
       </c>
@@ -14505,7 +14506,7 @@
         <v>9.3876803856362698E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:16">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>97</v>
       </c>
@@ -14555,7 +14556,7 @@
         <v>9.232944747189073E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:16">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>96</v>
       </c>
@@ -14605,7 +14606,7 @@
         <v>9.0960701444521536E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:16">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>95</v>
       </c>
@@ -14655,7 +14656,7 @@
         <v>9.320639018880103E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:16">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>94</v>
       </c>
@@ -14705,7 +14706,7 @@
         <v>9.5901770052623181E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:16">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>93</v>
       </c>
@@ -14755,7 +14756,7 @@
         <v>9.2824096859927152E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:16">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>92</v>
       </c>
@@ -14805,7 +14806,7 @@
         <v>9.1567113986484316E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:16">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>91</v>
       </c>
@@ -14855,7 +14856,7 @@
         <v>9.5596057017232824E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:16">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>90</v>
       </c>
@@ -14905,7 +14906,7 @@
         <v>9.2229460249933531E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:16">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>89</v>
       </c>
@@ -14955,7 +14956,7 @@
         <v>9.1953666997026756E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:16">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>88</v>
       </c>
@@ -15005,7 +15006,7 @@
         <v>9.5583182357718496E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:16">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>87</v>
       </c>
@@ -15055,7 +15056,7 @@
         <v>9.3260061419104576E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:16">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>86</v>
       </c>
@@ -15105,7 +15106,7 @@
         <v>9.184551995572228E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:16">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>85</v>
       </c>
@@ -15155,7 +15156,7 @@
         <v>9.7843312891890036E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:16">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>84</v>
       </c>
@@ -15205,7 +15206,7 @@
         <v>9.8197361085300125E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:16">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>83</v>
       </c>
@@ -15255,7 +15256,7 @@
         <v>9.3917206420726554E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:16">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>82</v>
       </c>
@@ -15305,7 +15306,7 @@
         <v>9.8742465957288486E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:16">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>81</v>
       </c>
@@ -15355,7 +15356,7 @@
         <v>9.6307961504811898E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:16">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>80</v>
       </c>
@@ -15405,7 +15406,7 @@
         <v>0.10109430208226131</v>
       </c>
     </row>
-    <row r="278" spans="1:16">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>79</v>
       </c>
@@ -15455,7 +15456,7 @@
         <v>9.8429973894179498E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:16">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>78</v>
       </c>
@@ -15505,7 +15506,7 @@
         <v>9.5205147720196504E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:16">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>77</v>
       </c>
@@ -15555,7 +15556,7 @@
         <v>0.1027201263033253</v>
       </c>
     </row>
-    <row r="281" spans="1:16">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>76</v>
       </c>
@@ -15605,7 +15606,7 @@
         <v>9.3699727502544405E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:16">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>75</v>
       </c>
@@ -15655,7 +15656,7 @@
         <v>9.482234801240845E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:16">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>74</v>
       </c>
@@ -15705,7 +15706,7 @@
         <v>9.8035789179365299E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:16">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>73</v>
       </c>
@@ -15755,7 +15756,7 @@
         <v>9.8651225195960743E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:16">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>72</v>
       </c>
@@ -15805,7 +15806,7 @@
         <v>9.6343203089662849E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:16">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>71</v>
       </c>
@@ -15855,7 +15856,7 @@
         <v>9.7566085833013239E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:16">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>70</v>
       </c>
@@ -15905,7 +15906,7 @@
         <v>9.6616696465410531E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:16">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>69</v>
       </c>
@@ -15955,7 +15956,7 @@
         <v>0.1031797534068787</v>
       </c>
     </row>
-    <row r="289" spans="1:16">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>68</v>
       </c>
@@ -16005,7 +16006,7 @@
         <v>9.5623035202266213E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:16">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>67</v>
       </c>
@@ -16055,7 +16056,7 @@
         <v>9.7295617034504192E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>66</v>
       </c>
@@ -16105,7 +16106,7 @@
         <v>9.6597145993413833E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:16">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>65</v>
       </c>
@@ -16155,7 +16156,7 @@
         <v>9.4715491325292472E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:16">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>64</v>
       </c>
@@ -16205,7 +16206,7 @@
         <v>9.4463357821178998E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:16">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>63</v>
       </c>
@@ -16255,7 +16256,7 @@
         <v>0.1008109397360471</v>
       </c>
     </row>
-    <row r="295" spans="1:16">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>62</v>
       </c>
@@ -16305,7 +16306,7 @@
         <v>0.10116731517509731</v>
       </c>
     </row>
-    <row r="296" spans="1:16">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>61</v>
       </c>
@@ -16355,7 +16356,7 @@
         <v>9.7063929353158732E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:16">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>60</v>
       </c>
@@ -16405,7 +16406,7 @@
         <v>0.13333575739946191</v>
       </c>
     </row>
-    <row r="298" spans="1:16">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>59</v>
       </c>
@@ -16455,7 +16456,7 @@
         <v>9.541019154318757E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:16">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>58</v>
       </c>
@@ -16505,7 +16506,7 @@
         <v>9.538471949651485E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:16">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>57</v>
       </c>
@@ -16555,7 +16556,7 @@
         <v>9.3852908891328204E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:16">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>56</v>
       </c>
@@ -16605,7 +16606,7 @@
         <v>9.2492351141445051E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:16">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>55</v>
       </c>
@@ -16655,7 +16656,7 @@
         <v>9.6980816273979656E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:16">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>54</v>
       </c>
@@ -16705,7 +16706,7 @@
         <v>9.3462599632127524E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:16">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>53</v>
       </c>
@@ -16755,7 +16756,7 @@
         <v>9.3007018704295744E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>52</v>
       </c>
@@ -16805,7 +16806,7 @@
         <v>9.2395804581838256E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:16">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>51</v>
       </c>
@@ -16855,7 +16856,7 @@
         <v>9.3748862271088945E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:16">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>50</v>
       </c>
@@ -16905,7 +16906,7 @@
         <v>9.3794483130073478E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:16">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>49</v>
       </c>
@@ -16955,7 +16956,7 @@
         <v>9.5539334955393351E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>48</v>
       </c>
@@ -17005,7 +17006,7 @@
         <v>0.10025911899541561</v>
       </c>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>47</v>
       </c>
@@ -17055,7 +17056,7 @@
         <v>9.2968043412722343E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>46</v>
       </c>
@@ -17105,7 +17106,7 @@
         <v>9.6451319381255687E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>45</v>
       </c>
@@ -17155,7 +17156,7 @@
         <v>9.9350954019393187E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>44</v>
       </c>
@@ -17205,7 +17206,7 @@
         <v>9.2117240123793923E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:16">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>43</v>
       </c>
@@ -17255,7 +17256,7 @@
         <v>9.9253629142700625E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>42</v>
       </c>
@@ -17305,7 +17306,7 @@
         <v>9.6973615095559421E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>41</v>
       </c>
@@ -17355,7 +17356,7 @@
         <v>9.5874514825337126E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>40</v>
       </c>
@@ -17405,7 +17406,7 @@
         <v>9.8073122529644272E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>39</v>
       </c>
@@ -17455,7 +17456,7 @@
         <v>9.2357036119109226E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>38</v>
       </c>
@@ -17505,7 +17506,7 @@
         <v>9.1925139706709666E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>37</v>
       </c>
@@ -17555,7 +17556,7 @@
         <v>9.8357697166576427E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:16">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>36</v>
       </c>
@@ -17605,7 +17606,7 @@
         <v>9.625160143819482E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:16">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>34</v>
       </c>
@@ -17655,7 +17656,7 @@
         <v>9.3469808775688334E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:16">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>33</v>
       </c>
@@ -17705,7 +17706,7 @@
         <v>9.5351426048904078E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:16">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>32</v>
       </c>
@@ -17755,7 +17756,7 @@
         <v>9.7560975609756101E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:16">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>30</v>
       </c>
@@ -17805,7 +17806,7 @@
         <v>9.72246773908432E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:16">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>29</v>
       </c>
@@ -17855,7 +17856,7 @@
         <v>9.5066136492737152E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:16">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>28</v>
       </c>
@@ -17905,7 +17906,7 @@
         <v>9.4667616135383062E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:16">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>27</v>
       </c>
@@ -17955,7 +17956,7 @@
         <v>9.3756109004183449E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:16">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>26</v>
       </c>
@@ -18005,7 +18006,7 @@
         <v>9.5020083790437526E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:16">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>25</v>
       </c>
@@ -18055,7 +18056,7 @@
         <v>9.6175932621549193E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:16">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>24</v>
       </c>
@@ -18105,7 +18106,7 @@
         <v>9.5907466163299732E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:16">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>23</v>
       </c>
@@ -18155,7 +18156,7 @@
         <v>8.7881503844520967E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:16">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>22</v>
       </c>
@@ -18205,7 +18206,7 @@
         <v>9.1582064297800345E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:16">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>21</v>
       </c>
@@ -18255,7 +18256,7 @@
         <v>9.6469253674906649E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:16">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>20</v>
       </c>
@@ -18266,7 +18267,7 @@
         <v>540</v>
       </c>
       <c r="D335" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="E335">
         <v>21947</v>
@@ -18305,7 +18306,7 @@
         <v>9.4545951610698495E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:16">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>19</v>
       </c>
@@ -18316,7 +18317,7 @@
         <v>541</v>
       </c>
       <c r="D336" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E336">
         <v>22873</v>
@@ -18355,7 +18356,7 @@
         <v>9.3997289380492288E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>18</v>
       </c>
@@ -18366,7 +18367,7 @@
         <v>542</v>
       </c>
       <c r="D337" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E337">
         <v>24101</v>
@@ -18405,7 +18406,7 @@
         <v>9.2278328700053938E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>17</v>
       </c>
@@ -18416,7 +18417,7 @@
         <v>543</v>
       </c>
       <c r="D338" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E338">
         <v>20824</v>
@@ -18455,7 +18456,7 @@
         <v>9.8348059930849024E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>16</v>
       </c>
@@ -18466,7 +18467,7 @@
         <v>544</v>
       </c>
       <c r="D339" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E339">
         <v>22176</v>
@@ -18505,7 +18506,7 @@
         <v>9.5914502164502161E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>14</v>
       </c>
@@ -18516,7 +18517,7 @@
         <v>546</v>
       </c>
       <c r="D340" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E340">
         <v>22336</v>
@@ -18555,7 +18556,7 @@
         <v>9.3481375358166183E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>13</v>
       </c>
@@ -18566,7 +18567,7 @@
         <v>547</v>
       </c>
       <c r="D341" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E341">
         <v>22166</v>
@@ -18605,7 +18606,7 @@
         <v>9.5100604529459537E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>12</v>
       </c>
@@ -18616,7 +18617,7 @@
         <v>548</v>
       </c>
       <c r="D342" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E342">
         <v>26010</v>
@@ -18655,7 +18656,7 @@
         <v>9.311803152633602E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>11</v>
       </c>
@@ -18666,7 +18667,7 @@
         <v>549</v>
       </c>
       <c r="D343" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E343">
         <v>24137</v>
@@ -18705,7 +18706,7 @@
         <v>9.3673613125077687E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:16">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>10</v>
       </c>
@@ -18716,7 +18717,7 @@
         <v>550</v>
       </c>
       <c r="D344" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E344">
         <v>22180</v>
@@ -18755,7 +18756,7 @@
         <v>9.1794409377817854E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>9</v>
       </c>
@@ -18766,7 +18767,7 @@
         <v>551</v>
       </c>
       <c r="D345" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E345">
         <v>20490</v>
@@ -18805,7 +18806,7 @@
         <v>9.9267935578330899E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>8</v>
       </c>
@@ -18816,7 +18817,7 @@
         <v>552</v>
       </c>
       <c r="D346" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E346">
         <v>21937</v>
@@ -18855,7 +18856,7 @@
         <v>9.6275698591420891E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>7</v>
       </c>
@@ -18866,7 +18867,7 @@
         <v>553</v>
       </c>
       <c r="D347" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E347">
         <v>20281</v>
@@ -18905,7 +18906,7 @@
         <v>9.4226122972240034E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>6</v>
       </c>
@@ -18916,7 +18917,7 @@
         <v>554</v>
       </c>
       <c r="D348" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E348">
         <v>15554</v>
@@ -18955,7 +18956,7 @@
         <v>0.10042432814710039</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>5</v>
       </c>
@@ -18966,7 +18967,7 @@
         <v>555</v>
       </c>
       <c r="D349" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E349">
         <v>20011</v>
@@ -19005,7 +19006,7 @@
         <v>0.1020938483833891</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>4</v>
       </c>
@@ -19016,7 +19017,7 @@
         <v>556</v>
       </c>
       <c r="D350" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E350">
         <v>20879</v>
@@ -19055,7 +19056,7 @@
         <v>9.636476842760669E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>3</v>
       </c>
@@ -19066,7 +19067,7 @@
         <v>557</v>
       </c>
       <c r="D351" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E351">
         <v>20160</v>
@@ -19105,7 +19106,7 @@
         <v>9.6081349206349212E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>2</v>
       </c>
@@ -19116,7 +19117,7 @@
         <v>558</v>
       </c>
       <c r="D352" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E352">
         <v>20001</v>
@@ -19155,7 +19156,7 @@
         <v>9.5945202739863011E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:16">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>1</v>
       </c>
@@ -19166,7 +19167,7 @@
         <v>559</v>
       </c>
       <c r="D353" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E353">
         <v>21204</v>
@@ -19205,7 +19206,7 @@
         <v>9.3048481418600268E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:16">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -19216,7 +19217,7 @@
         <v>560</v>
       </c>
       <c r="D354" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E354">
         <v>20380</v>

--- a/prep_data.xlsx
+++ b/prep_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\mcm23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A7B05A-E286-42F6-90CF-3C743F1C85EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E5635-739E-4062-9B59-38D9545084EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>Contest_num</t>
+  </si>
+  <si>
     <t>Word</t>
   </si>
   <si>
+    <t>Number of  reported results</t>
+  </si>
+  <si>
     <t>Number in hard mode</t>
   </si>
   <si>
+    <t>1_try</t>
+  </si>
+  <si>
+    <t>2_tries</t>
+  </si>
+  <si>
+    <t>3_tries</t>
+  </si>
+  <si>
+    <t>4_tries</t>
+  </si>
+  <si>
+    <t>5_tries</t>
+  </si>
+  <si>
+    <t>6_tries</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
     <t>word_len</t>
   </si>
   <si>
@@ -40,6 +67,9 @@
     <t>hard_mode_rate</t>
   </si>
   <si>
+    <t>probability</t>
+  </si>
+  <si>
     <t>slump</t>
   </si>
   <si>
@@ -1039,6 +1069,9 @@
     <t>knock</t>
   </si>
   <si>
+    <t>naive</t>
+  </si>
+  <si>
     <t>apply</t>
   </si>
   <si>
@@ -1094,46 +1127,6 @@
   </si>
   <si>
     <t>manly</t>
-  </si>
-  <si>
-    <t>Number of  reported results</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_tries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_try</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_tries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_tries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5_tries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6_tries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contest_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>naive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1546,69 +1539,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P354"/>
+  <dimension ref="A1:Q354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="D335" sqref="D335"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="29" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="40.44140625" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>358</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>360</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>359</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>361</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>362</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>363</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>364</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>365</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>44568</v>
@@ -1617,7 +1615,7 @@
         <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>80630</v>
@@ -1655,10 +1653,13 @@
       <c r="P2">
         <v>1.689197569142999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>3.8512138347350988E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>357</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>44569</v>
@@ -1667,7 +1668,7 @@
         <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>101503</v>
@@ -1705,10 +1706,13 @@
       <c r="P3">
         <v>1.7368944760253389E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>1.9959060536376359E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>356</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>44570</v>
@@ -1717,7 +1721,7 @@
         <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>91477</v>
@@ -1755,10 +1759,13 @@
       <c r="P4">
         <v>2.0912360484056099E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>1.2482476450513331E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>355</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>44571</v>
@@ -1767,7 +1774,7 @@
         <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>107134</v>
@@ -1805,10 +1812,13 @@
       <c r="P5">
         <v>2.092706330389979E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>3.065141439514942E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>354</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>44572</v>
@@ -1817,7 +1827,7 @@
         <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>153880</v>
@@ -1855,10 +1865,13 @@
       <c r="P6">
         <v>1.960618663893943E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>1.890387388743287E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>352</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>44574</v>
@@ -1867,7 +1880,7 @@
         <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>132726</v>
@@ -1905,10 +1918,13 @@
       <c r="P7">
         <v>2.520229646037702E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>1.2756236668611529E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>351</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>44575</v>
@@ -1917,7 +1933,7 @@
         <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>169484</v>
@@ -1955,10 +1971,13 @@
       <c r="P8">
         <v>2.3512543956951688E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>3.7821662996536949E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>350</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>44576</v>
@@ -1967,7 +1986,7 @@
         <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>205880</v>
@@ -2005,10 +2024,13 @@
       <c r="P9">
         <v>2.2610258402953179E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>1.7521619474291191E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>349</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>44577</v>
@@ -2017,7 +2039,7 @@
         <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>209609</v>
@@ -2055,10 +2077,13 @@
       <c r="P10">
         <v>2.363925213134932E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>8.6077662891783612E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>348</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>44578</v>
@@ -2067,7 +2092,7 @@
         <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>222197</v>
@@ -2105,10 +2130,13 @@
       <c r="P11">
         <v>2.538288095698862E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>5.6189279351468644E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>347</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>44579</v>
@@ -2117,7 +2145,7 @@
         <v>213</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>220950</v>
@@ -2155,10 +2183,13 @@
       <c r="P12">
         <v>2.80878026702874E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>2.739470161566479E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>346</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>44580</v>
@@ -2167,7 +2198,7 @@
         <v>214</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>280622</v>
@@ -2205,10 +2236,13 @@
       <c r="P13">
         <v>2.5279557554290111E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>2.0628421627326452E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>345</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>44581</v>
@@ -2217,7 +2251,7 @@
         <v>215</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>243964</v>
@@ -2255,10 +2289,13 @@
       <c r="P14">
         <v>2.7008083159810459E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>5.9824756813808606E-8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>344</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>44582</v>
@@ -2267,7 +2304,7 @@
         <v>216</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>273727</v>
@@ -2305,10 +2342,13 @@
       <c r="P15">
         <v>2.7067114314627352E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>2.6451838240868212E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>343</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>44583</v>
@@ -2317,7 +2357,7 @@
         <v>217</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>241489</v>
@@ -2355,10 +2395,13 @@
       <c r="P16">
         <v>2.8365681252562228E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>1.686881399444902E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>44584</v>
@@ -2367,7 +2410,7 @@
         <v>218</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>269929</v>
@@ -2405,10 +2448,13 @@
       <c r="P17">
         <v>2.8266692352433419E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>6.6949383977404062E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>341</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>44585</v>
@@ -2417,7 +2463,7 @@
         <v>219</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>258038</v>
@@ -2455,10 +2501,13 @@
       <c r="P18">
         <v>3.2231686805819303E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>2.5383601198694239E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>340</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>44586</v>
@@ -2467,7 +2516,7 @@
         <v>220</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>276404</v>
@@ -2505,10 +2554,13 @@
       <c r="P19">
         <v>3.1504609195235962E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>9.9124604014814614E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>339</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>44587</v>
@@ -2517,7 +2569,7 @@
         <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>302348</v>
@@ -2555,10 +2607,13 @@
       <c r="P20">
         <v>3.3613584346514611E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>9.8815026761818225E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>44588</v>
@@ -2567,7 +2622,7 @@
         <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>331844</v>
@@ -2605,10 +2660,13 @@
       <c r="P21">
         <v>3.4507178071624019E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>7.9471223815383516E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>337</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>44589</v>
@@ -2617,7 +2675,7 @@
         <v>223</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>296968</v>
@@ -2655,10 +2713,13 @@
       <c r="P22">
         <v>3.7539398184316147E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>1.926660333409391E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>336</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>44590</v>
@@ -2667,7 +2728,7 @@
         <v>224</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>313220</v>
@@ -2705,10 +2766,13 @@
       <c r="P23">
         <v>3.7009130962262937E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>1.580417423060002E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>335</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>44591</v>
@@ -2717,7 +2781,7 @@
         <v>225</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>294687</v>
@@ -2755,10 +2819,13 @@
       <c r="P24">
         <v>3.9105898801100832E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>1.457386466861632E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>334</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>44592</v>
@@ -2767,7 +2834,7 @@
         <v>226</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E25">
         <v>341314</v>
@@ -2805,10 +2872,13 @@
       <c r="P25">
         <v>3.9104753980205909E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>5.4346039998596263E-8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>44593</v>
@@ -2817,7 +2887,7 @@
         <v>227</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E26">
         <v>351663</v>
@@ -2855,10 +2925,13 @@
       <c r="P26">
         <v>3.8690450800908827E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>2.578863805448672E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>332</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>44594</v>
@@ -2867,7 +2940,7 @@
         <v>228</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>361908</v>
@@ -2905,10 +2978,13 @@
       <c r="P27">
         <v>3.9250306707782089E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>1.3931763755638E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>331</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>44595</v>
@@ -2917,7 +2993,7 @@
         <v>229</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E28">
         <v>358176</v>
@@ -2955,10 +3031,13 @@
       <c r="P28">
         <v>4.0787210756722952E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>5.2595401047401238E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>330</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>44596</v>
@@ -2967,7 +3046,7 @@
         <v>230</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E29">
         <v>359679</v>
@@ -3005,10 +3084,13 @@
       <c r="P29">
         <v>4.1183944572799627E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>8.2123547657069842E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>329</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>44597</v>
@@ -3017,7 +3099,7 @@
         <v>231</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E30">
         <v>319698</v>
@@ -3055,10 +3137,13 @@
       <c r="P30">
         <v>4.287796608048846E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>6.648130899057027E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>328</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>44598</v>
@@ -3067,7 +3152,7 @@
         <v>232</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <v>311018</v>
@@ -3105,10 +3190,13 @@
       <c r="P31">
         <v>4.4100341459336757E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>2.2037558641149421E-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>327</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>44599</v>
@@ -3117,7 +3205,7 @@
         <v>233</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E32">
         <v>288228</v>
@@ -3155,10 +3243,13 @@
       <c r="P32">
         <v>4.6282803891363779E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>5.535802786817313E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>326</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>44600</v>
@@ -3167,7 +3258,7 @@
         <v>234</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E33">
         <v>336236</v>
@@ -3205,10 +3296,13 @@
       <c r="P33">
         <v>4.5708966321274337E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>1.9200672937870578E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>325</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>44601</v>
@@ -3217,7 +3311,7 @@
         <v>235</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E34">
         <v>305372</v>
@@ -3255,10 +3349,13 @@
       <c r="P34">
         <v>4.5341419645547068E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>8.3908863883661837E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>324</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>44602</v>
@@ -3267,7 +3364,7 @@
         <v>236</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E35">
         <v>304830</v>
@@ -3305,10 +3402,13 @@
       <c r="P35">
         <v>4.422136928779976E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>9.2757631597966155E-7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>44603</v>
@@ -3317,7 +3417,7 @@
         <v>237</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E36">
         <v>278826</v>
@@ -3355,10 +3455,13 @@
       <c r="P36">
         <v>3.8127721231162093E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>1.043191280715796E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>322</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>44604</v>
@@ -3367,7 +3470,7 @@
         <v>238</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E37">
         <v>269885</v>
@@ -3405,10 +3508,13 @@
       <c r="P37">
         <v>3.4496174296459597E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>4.8450146510726159E-8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>44606</v>
@@ -3417,7 +3523,7 @@
         <v>240</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <v>261521</v>
@@ -3455,10 +3561,13 @@
       <c r="P38">
         <v>3.9549405210289039E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>8.519603027499509E-9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>319</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>44607</v>
@@ -3467,7 +3576,7 @@
         <v>241</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E39">
         <v>287836</v>
@@ -3505,10 +3614,13 @@
       <c r="P39">
         <v>3.5933656665601242E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>3.81962104811058E-7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>318</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>44608</v>
@@ -3517,7 +3629,7 @@
         <v>242</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E40">
         <v>289721</v>
@@ -3555,10 +3667,13 @@
       <c r="P40">
         <v>3.7070146796400673E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>2.5071655990312402E-7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>317</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>44609</v>
@@ -3567,7 +3682,7 @@
         <v>243</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E41">
         <v>342003</v>
@@ -3605,10 +3720,13 @@
       <c r="P41">
         <v>3.7330081899866377E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>1.212631883439814E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>44610</v>
@@ -3617,7 +3735,7 @@
         <v>244</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E42">
         <v>265238</v>
@@ -3655,10 +3773,13 @@
       <c r="P42">
         <v>3.853143214773147E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>4.8742315260437241E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>44611</v>
@@ -3667,7 +3788,7 @@
         <v>245</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E43">
         <v>282327</v>
@@ -3705,10 +3826,13 @@
       <c r="P43">
         <v>3.9815533052099158E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>3.4280646775121312E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>44612</v>
@@ -3717,7 +3841,7 @@
         <v>246</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E44">
         <v>273306</v>
@@ -3755,10 +3879,13 @@
       <c r="P44">
         <v>4.0591864064455217E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>2.3715387612354339E-7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>44613</v>
@@ -3767,7 +3894,7 @@
         <v>247</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E45">
         <v>278731</v>
@@ -3805,10 +3932,13 @@
       <c r="P45">
         <v>3.9059164570858639E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>4.0663526343620748E-7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>44614</v>
@@ -3817,7 +3947,7 @@
         <v>248</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E46">
         <v>306356</v>
@@ -3855,10 +3985,13 @@
       <c r="P46">
         <v>3.856297901787463E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>7.5693923535544195E-7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>44615</v>
@@ -3867,7 +4000,7 @@
         <v>249</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E47">
         <v>277576</v>
@@ -3905,10 +4038,13 @@
       <c r="P47">
         <v>4.1109461913133701E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>5.8186988294991131E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>310</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>44616</v>
@@ -3917,7 +4053,7 @@
         <v>250</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E48">
         <v>250674</v>
@@ -3955,10 +4091,13 @@
       <c r="P48">
         <v>4.1508094178095853E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>7.2307914900020461E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>309</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <v>44617</v>
@@ -3967,7 +4106,7 @@
         <v>251</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E49">
         <v>255907</v>
@@ -4005,10 +4144,13 @@
       <c r="P49">
         <v>4.5668934417581387E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>8.3835249294514596E-7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>308</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <v>44618</v>
@@ -4017,7 +4159,7 @@
         <v>252</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E50">
         <v>248363</v>
@@ -4055,10 +4197,13 @@
       <c r="P50">
         <v>4.0613940079641503E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>6.121544066985948E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>307</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
         <v>44619</v>
@@ -4067,7 +4212,7 @@
         <v>253</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E51">
         <v>250413</v>
@@ -4105,10 +4250,13 @@
       <c r="P51">
         <v>4.1683139453622613E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>1.5076497387585081E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>306</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>44620</v>
@@ -4117,7 +4265,7 @@
         <v>254</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E52">
         <v>251094</v>
@@ -4155,10 +4303,13 @@
       <c r="P52">
         <v>4.1900642787163371E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>1.3731942438430291E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>305</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>44621</v>
@@ -4167,7 +4318,7 @@
         <v>255</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E53">
         <v>240137</v>
@@ -4205,10 +4356,13 @@
       <c r="P53">
         <v>4.4045690584957747E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>7.7333126697786697E-8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>304</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <v>44622</v>
@@ -4217,7 +4371,7 @@
         <v>256</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E54">
         <v>257304</v>
@@ -4255,10 +4409,13 @@
       <c r="P54">
         <v>4.2024220377452362E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>5.6341235912082631E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>303</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
         <v>44623</v>
@@ -4267,7 +4424,7 @@
         <v>257</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E55">
         <v>240018</v>
@@ -4305,10 +4462,13 @@
       <c r="P55">
         <v>4.3600896599421707E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>2.6460875711105028E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>302</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>44624</v>
@@ -4317,7 +4477,7 @@
         <v>258</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E56">
         <v>203730</v>
@@ -4355,10 +4515,13 @@
       <c r="P56">
         <v>4.6119864526579298E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>9.8725265123940469E-8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>301</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <v>44625</v>
@@ -4367,7 +4530,7 @@
         <v>259</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E57">
         <v>229895</v>
@@ -4405,10 +4568,13 @@
       <c r="P57">
         <v>4.5259792513973773E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>1.494885252703164E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>300</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>44626</v>
@@ -4417,7 +4583,7 @@
         <v>260</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E58">
         <v>218595</v>
@@ -4455,10 +4621,13 @@
       <c r="P58">
         <v>4.533955488460395E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>2.0758439282888109E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>299</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>44627</v>
@@ -4467,7 +4636,7 @@
         <v>261</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E59">
         <v>218595</v>
@@ -4505,10 +4674,13 @@
       <c r="P59">
         <v>4.493698392003477E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>1.6212098894281369E-7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>298</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <v>44628</v>
@@ -4517,7 +4689,7 @@
         <v>262</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E60">
         <v>207473</v>
@@ -4555,10 +4727,13 @@
       <c r="P60">
         <v>4.7076005070539301E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>2.1695152405968E-7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>297</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <v>44629</v>
@@ -4567,7 +4742,7 @@
         <v>263</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E61">
         <v>201799</v>
@@ -4605,10 +4780,13 @@
       <c r="P61">
         <v>4.6754443778214957E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>2.5689185770190138E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>296</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <v>44630</v>
@@ -4617,7 +4795,7 @@
         <v>264</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E62">
         <v>208884</v>
@@ -4655,10 +4833,13 @@
       <c r="P62">
         <v>4.7681967024760151E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>7.41434312029689E-7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>295</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <v>44631</v>
@@ -4667,7 +4848,7 @@
         <v>265</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E63">
         <v>226349</v>
@@ -4705,10 +4886,13 @@
       <c r="P63">
         <v>5.4782658637767337E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>9.0446319007410254E-7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>294</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <v>44632</v>
@@ -4717,7 +4901,7 @@
         <v>266</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E64">
         <v>192049</v>
@@ -4755,10 +4939,13 @@
       <c r="P64">
         <v>4.8701112736853618E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>1.7197368225462479E-7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <v>44633</v>
@@ -4767,7 +4954,7 @@
         <v>267</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E65">
         <v>179436</v>
@@ -4805,10 +4992,13 @@
       <c r="P65">
         <v>4.9806058984819102E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>1.6480769688568389E-8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>292</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
         <v>44634</v>
@@ -4817,7 +5007,7 @@
         <v>268</v>
       </c>
       <c r="D66" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E66">
         <v>185406</v>
@@ -4855,10 +5045,13 @@
       <c r="P66">
         <v>5.0553919506380593E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>1.093037670274797E-6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>291</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <v>44635</v>
@@ -4867,7 +5060,7 @@
         <v>269</v>
       </c>
       <c r="D67" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E67">
         <v>202855</v>
@@ -4905,10 +5098,13 @@
       <c r="P67">
         <v>4.94146064923221E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>1.8146725204424669E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>290</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
         <v>44636</v>
@@ -4917,7 +5113,7 @@
         <v>270</v>
       </c>
       <c r="D68" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E68">
         <v>217856</v>
@@ -4955,10 +5151,13 @@
       <c r="P68">
         <v>5.1566172150411281E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <v>5.2243100837565871E-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>289</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>44637</v>
@@ -4967,7 +5166,7 @@
         <v>271</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E69">
         <v>169071</v>
@@ -5005,10 +5204,13 @@
       <c r="P69">
         <v>5.2327128839363343E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>1.810530215735086E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>288</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
         <v>44638</v>
@@ -5017,7 +5219,7 @@
         <v>272</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E70">
         <v>179830</v>
@@ -5055,10 +5257,13 @@
       <c r="P70">
         <v>5.1737752321637097E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>6.1626809732894612E-7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>287</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
         <v>44639</v>
@@ -5067,7 +5272,7 @@
         <v>273</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E71">
         <v>156311</v>
@@ -5105,10 +5310,13 @@
       <c r="P71">
         <v>5.4474733064211731E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>1.066617476010089E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>286</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
         <v>44640</v>
@@ -5117,7 +5325,7 @@
         <v>274</v>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E72">
         <v>154987</v>
@@ -5155,10 +5363,13 @@
       <c r="P72">
         <v>5.4307780652570858E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <v>2.5776210195256469E-8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>285</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
         <v>44641</v>
@@ -5167,7 +5378,7 @@
         <v>275</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E73">
         <v>173636</v>
@@ -5205,10 +5416,13 @@
       <c r="P73">
         <v>5.2984404155820217E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>6.0984505341188653E-7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
         <v>44642</v>
@@ -5217,7 +5431,7 @@
         <v>276</v>
       </c>
       <c r="D74" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E74">
         <v>160161</v>
@@ -5255,10 +5469,13 @@
       <c r="P74">
         <v>5.4988417904483611E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <v>1.728373512956731E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
         <v>44643</v>
@@ -5267,7 +5484,7 @@
         <v>277</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E75">
         <v>156785</v>
@@ -5305,10 +5522,13 @@
       <c r="P75">
         <v>5.4565168861817143E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>2.6984038283044698E-7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>282</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>44644</v>
@@ -5317,7 +5537,7 @@
         <v>278</v>
       </c>
       <c r="D76" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E76">
         <v>169066</v>
@@ -5355,10 +5575,13 @@
       <c r="P76">
         <v>5.5114570641051422E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>2.4904274196058898E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <v>44645</v>
@@ -5367,7 +5590,7 @@
         <v>279</v>
       </c>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E77">
         <v>150197</v>
@@ -5405,10 +5628,13 @@
       <c r="P77">
         <v>5.7005133258320739E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>4.1567366219837058E-7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
         <v>44646</v>
@@ -5417,7 +5643,7 @@
         <v>280</v>
       </c>
       <c r="D78" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E78">
         <v>149507</v>
@@ -5455,10 +5681,13 @@
       <c r="P78">
         <v>6.2712782679071877E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>4.7892834992420962E-7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
         <v>44647</v>
@@ -5467,7 +5696,7 @@
         <v>281</v>
       </c>
       <c r="D79" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E79">
         <v>165468</v>
@@ -5505,10 +5734,13 @@
       <c r="P79">
         <v>6.0041820775013903E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>1.09945486423859E-7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2">
         <v>44648</v>
@@ -5517,7 +5749,7 @@
         <v>282</v>
       </c>
       <c r="D80" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E80">
         <v>173696</v>
@@ -5555,10 +5787,13 @@
       <c r="P80">
         <v>6.1101004053058218E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>5.0199214387075724E-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2">
         <v>44649</v>
@@ -5567,7 +5802,7 @@
         <v>283</v>
       </c>
       <c r="D81" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E81">
         <v>149070</v>
@@ -5605,10 +5840,13 @@
       <c r="P81">
         <v>5.6979942308982359E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>9.2879246784461572E-6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <v>44650</v>
@@ -5617,7 +5855,7 @@
         <v>284</v>
       </c>
       <c r="D82" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E82">
         <v>158139</v>
@@ -5655,10 +5893,13 @@
       <c r="P82">
         <v>5.8922846356686209E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>2.25323023085896E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>275</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>44651</v>
@@ -5667,7 +5908,7 @@
         <v>285</v>
       </c>
       <c r="D83" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E83">
         <v>135219</v>
@@ -5705,10 +5946,13 @@
       <c r="P83">
         <v>6.2631730747897851E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>1.442066827565641E-6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
         <v>44652</v>
@@ -5717,7 +5961,7 @@
         <v>286</v>
       </c>
       <c r="D84" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E84">
         <v>144648</v>
@@ -5755,10 +5999,13 @@
       <c r="P84">
         <v>6.1618549858967968E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>1.2498538059200431E-6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>273</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
         <v>44653</v>
@@ -5767,7 +6014,7 @@
         <v>287</v>
       </c>
       <c r="D85" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E85">
         <v>155079</v>
@@ -5805,10 +6052,13 @@
       <c r="P85">
         <v>6.0066159828216593E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>9.2076113345920036E-7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2">
         <v>44654</v>
@@ -5817,7 +6067,7 @@
         <v>288</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E86">
         <v>124532</v>
@@ -5855,10 +6105,13 @@
       <c r="P86">
         <v>6.3686442038993998E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>6.5760546508824176E-7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2">
         <v>44655</v>
@@ -5867,7 +6120,7 @@
         <v>289</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E87">
         <v>129651</v>
@@ -5905,10 +6158,13 @@
       <c r="P87">
         <v>6.1264471542834223E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>1.030959639307524E-6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
         <v>44656</v>
@@ -5917,7 +6173,7 @@
         <v>290</v>
       </c>
       <c r="D88" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E88">
         <v>121356</v>
@@ -5955,10 +6211,13 @@
       <c r="P88">
         <v>6.3466165661359972E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>1.9260798956431081E-7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>269</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2">
         <v>44657</v>
@@ -5967,7 +6226,7 @@
         <v>291</v>
       </c>
       <c r="D89" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E89">
         <v>117856</v>
@@ -6005,10 +6264,13 @@
       <c r="P89">
         <v>6.4146076568015201E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <v>1.117130061839743E-7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2">
         <v>44658</v>
@@ -6017,7 +6279,7 @@
         <v>292</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E90">
         <v>117761</v>
@@ -6055,10 +6317,13 @@
       <c r="P90">
         <v>6.4325201042790062E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>2.2745412557169781E-6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>267</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2">
         <v>44659</v>
@@ -6067,7 +6332,7 @@
         <v>293</v>
       </c>
       <c r="D91" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E91">
         <v>141158</v>
@@ -6105,10 +6370,13 @@
       <c r="P91">
         <v>6.3829184318281648E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>6.3085730126571298E-6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2">
         <v>44660</v>
@@ -6117,7 +6385,7 @@
         <v>294</v>
       </c>
       <c r="D92" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E92">
         <v>134210</v>
@@ -6155,10 +6423,13 @@
       <c r="P92">
         <v>6.3609269055957082E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>3.3082842643182809E-6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>265</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2">
         <v>44661</v>
@@ -6167,7 +6438,7 @@
         <v>295</v>
       </c>
       <c r="D93" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E93">
         <v>126241</v>
@@ -6205,10 +6476,13 @@
       <c r="P93">
         <v>6.2531190342281828E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <v>2.6820384347003478E-6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2">
         <v>44662</v>
@@ -6217,7 +6491,7 @@
         <v>296</v>
       </c>
       <c r="D94" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E94">
         <v>109828</v>
@@ -6255,10 +6529,13 @@
       <c r="P94">
         <v>6.5884838110500055E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>2.303391990016547E-6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>263</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2">
         <v>44663</v>
@@ -6267,7 +6544,7 @@
         <v>297</v>
       </c>
       <c r="D95" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E95">
         <v>114907</v>
@@ -6305,10 +6582,13 @@
       <c r="P95">
         <v>6.3312069760763048E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <v>4.832430197433467E-8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>262</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2">
         <v>44664</v>
@@ -6317,7 +6597,7 @@
         <v>298</v>
       </c>
       <c r="D96" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E96">
         <v>123255</v>
@@ -6355,10 +6635,13 @@
       <c r="P96">
         <v>6.3567400916798508E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>8.0762779286220335E-6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>261</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2">
         <v>44665</v>
@@ -6367,7 +6650,7 @@
         <v>299</v>
       </c>
       <c r="D97" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E97">
         <v>113448</v>
@@ -6405,10 +6688,13 @@
       <c r="P97">
         <v>6.4840279246879629E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <v>2.0911752885680611E-6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2">
         <v>44666</v>
@@ -6417,7 +6703,7 @@
         <v>300</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E98">
         <v>129991</v>
@@ -6455,10 +6741,13 @@
       <c r="P98">
         <v>6.5558384811256171E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <v>1.783426285139768E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>259</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2">
         <v>44667</v>
@@ -6467,7 +6756,7 @@
         <v>301</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E99">
         <v>107987</v>
@@ -6505,10 +6794,13 @@
       <c r="P99">
         <v>6.5146730624982635E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <v>1.761352244788237E-7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2">
         <v>44668</v>
@@ -6517,7 +6809,7 @@
         <v>302</v>
       </c>
       <c r="D100" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E100">
         <v>106681</v>
@@ -6555,10 +6847,13 @@
       <c r="P100">
         <v>6.5691172748661902E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <v>1.17149822968084E-6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2">
         <v>44669</v>
@@ -6567,7 +6862,7 @@
         <v>303</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E101">
         <v>112383</v>
@@ -6605,10 +6900,13 @@
       <c r="P101">
         <v>6.5321267451482881E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <v>2.0492155182784299E-6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2">
         <v>44670</v>
@@ -6617,7 +6915,7 @@
         <v>304</v>
       </c>
       <c r="D102" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E102">
         <v>108899</v>
@@ -6655,10 +6953,13 @@
       <c r="P102">
         <v>7.5280764745314463E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <v>2.3016191278088459E-7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2">
         <v>44671</v>
@@ -6667,7 +6968,7 @@
         <v>305</v>
       </c>
       <c r="D103" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E103">
         <v>102007</v>
@@ -6705,10 +7006,13 @@
       <c r="P103">
         <v>6.6622878822041626E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <v>4.4285823086003328E-7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>254</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2">
         <v>44672</v>
@@ -6717,7 +7021,7 @@
         <v>306</v>
       </c>
       <c r="D104" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E104">
         <v>97955</v>
@@ -6755,10 +7059,13 @@
       <c r="P104">
         <v>7.1053034556684186E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <v>4.638080638907347E-7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2">
         <v>44673</v>
@@ -6767,7 +7074,7 @@
         <v>307</v>
       </c>
       <c r="D105" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E105">
         <v>119232</v>
@@ -6805,10 +7112,13 @@
       <c r="P105">
         <v>6.4839975845410625E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <v>1.9552088817191918E-6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2">
         <v>44674</v>
@@ -6817,7 +7127,7 @@
         <v>308</v>
       </c>
       <c r="D106" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E106">
         <v>95562</v>
@@ -6855,10 +7165,13 @@
       <c r="P106">
         <v>6.7830309118687343E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <v>5.3980364192688547E-7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2">
         <v>44675</v>
@@ -6867,7 +7180,7 @@
         <v>309</v>
       </c>
       <c r="D107" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E107">
         <v>97452</v>
@@ -6905,10 +7218,13 @@
       <c r="P107">
         <v>6.9193038624143166E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>2.5965845405026299E-6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2">
         <v>44676</v>
@@ -6917,7 +7233,7 @@
         <v>310</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E108">
         <v>91548</v>
@@ -6955,10 +7271,13 @@
       <c r="P108">
         <v>7.1536243282212614E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>6.0852072696252511E-8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2">
         <v>44677</v>
@@ -6967,7 +7286,7 @@
         <v>311</v>
       </c>
       <c r="D109" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E109">
         <v>103153</v>
@@ -7005,10 +7324,13 @@
       <c r="P109">
         <v>6.6212325380745105E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>3.490151996754032E-7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2">
         <v>44678</v>
@@ -7017,7 +7339,7 @@
         <v>312</v>
       </c>
       <c r="D110" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E110">
         <v>98967</v>
@@ -7055,10 +7377,13 @@
       <c r="P110">
         <v>6.632513868259117E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>2.9274458595220609E-6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2">
         <v>44679</v>
@@ -7067,7 +7392,7 @@
         <v>313</v>
       </c>
       <c r="D111" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E111">
         <v>88974</v>
@@ -7105,10 +7430,13 @@
       <c r="P111">
         <v>7.0975790680423492E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>2.3073077563995751E-7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>245</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2">
         <v>44681</v>
@@ -7117,7 +7445,7 @@
         <v>315</v>
       </c>
       <c r="D112" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E112">
         <v>77991</v>
@@ -7155,10 +7483,13 @@
       <c r="P112">
         <v>7.3713633624392552E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <v>3.8854500610874542E-8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2">
         <v>44682</v>
@@ -7167,7 +7498,7 @@
         <v>316</v>
       </c>
       <c r="D113" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E113">
         <v>77658</v>
@@ -7205,10 +7536,13 @@
       <c r="P113">
         <v>7.3385871384789719E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>3.5041952118889009E-7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2">
         <v>44683</v>
@@ -7217,7 +7551,7 @@
         <v>317</v>
       </c>
       <c r="D114" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E114">
         <v>95643</v>
@@ -7255,10 +7589,13 @@
       <c r="P114">
         <v>6.8274729985466784E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <v>1.656528645620208E-5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>242</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2">
         <v>44684</v>
@@ -7267,7 +7604,7 @@
         <v>318</v>
       </c>
       <c r="D115" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E115">
         <v>85817</v>
@@ -7305,10 +7642,13 @@
       <c r="P115">
         <v>6.9228707598727526E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>1.600193835889688E-6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2">
         <v>44685</v>
@@ -7317,7 +7657,7 @@
         <v>319</v>
       </c>
       <c r="D116" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E116">
         <v>107750</v>
@@ -7355,10 +7695,13 @@
       <c r="P116">
         <v>6.7220417633410676E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>1.8381889924183249E-6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2">
         <v>44686</v>
@@ -7367,7 +7710,7 @@
         <v>320</v>
       </c>
       <c r="D117" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E117">
         <v>85979</v>
@@ -7405,10 +7748,13 @@
       <c r="P117">
         <v>7.3424906081717631E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <v>2.5440118668727719E-6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>239</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2">
         <v>44687</v>
@@ -7417,7 +7763,7 @@
         <v>321</v>
       </c>
       <c r="D118" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E118">
         <v>76292</v>
@@ -7455,10 +7801,13 @@
       <c r="P118">
         <v>7.1855502542861632E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <v>2.2270195765544592E-6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2">
         <v>44688</v>
@@ -7467,7 +7816,7 @@
         <v>322</v>
       </c>
       <c r="D119" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E119">
         <v>74458</v>
@@ -7505,10 +7854,13 @@
       <c r="P119">
         <v>7.0281232372612745E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <v>6.8344501442752433E-7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2">
         <v>44689</v>
@@ -7517,7 +7869,7 @@
         <v>323</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E120">
         <v>72518</v>
@@ -7555,10 +7907,13 @@
       <c r="P120">
         <v>7.2478557047905345E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <v>5.531290032367868E-7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2">
         <v>44690</v>
@@ -7567,7 +7922,7 @@
         <v>324</v>
       </c>
       <c r="D121" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E121">
         <v>88932</v>
@@ -7605,10 +7960,13 @@
       <c r="P121">
         <v>6.9108982143660319E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <v>2.26499420641579E-5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2">
         <v>44691</v>
@@ -7617,7 +7975,7 @@
         <v>325</v>
       </c>
       <c r="D122" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E122">
         <v>74412</v>
@@ -7655,10 +8013,13 @@
       <c r="P122">
         <v>7.3764984142342629E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <v>3.8705229912242247E-8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2">
         <v>44692</v>
@@ -7667,7 +8028,7 @@
         <v>326</v>
       </c>
       <c r="D123" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E123">
         <v>79446</v>
@@ -7705,10 +8066,13 @@
       <c r="P123">
         <v>7.1595800921380556E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <v>1.5749374584046121E-7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2">
         <v>44693</v>
@@ -7717,7 +8081,7 @@
         <v>327</v>
       </c>
       <c r="D124" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E124">
         <v>75673</v>
@@ -7755,10 +8119,13 @@
       <c r="P124">
         <v>7.1610746237099093E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>1.140941855109193E-6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2">
         <v>44694</v>
@@ -7767,7 +8134,7 @@
         <v>328</v>
       </c>
       <c r="D125" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E125">
         <v>77585</v>
@@ -7805,10 +8172,13 @@
       <c r="P125">
         <v>7.1173551588580269E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q125">
+        <v>1.42401223244185E-8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2">
         <v>44695</v>
@@ -7817,7 +8187,7 @@
         <v>329</v>
       </c>
       <c r="D126" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E126">
         <v>73225</v>
@@ -7855,10 +8225,13 @@
       <c r="P126">
         <v>7.224308637760328E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q126">
+        <v>1.29072367032707E-6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2">
         <v>44696</v>
@@ -7867,7 +8240,7 @@
         <v>330</v>
       </c>
       <c r="D127" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E127">
         <v>67115</v>
@@ -7905,10 +8278,13 @@
       <c r="P127">
         <v>7.3947701706026964E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q127">
+        <v>7.9460962638381896E-9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2">
         <v>44697</v>
@@ -7917,7 +8293,7 @@
         <v>331</v>
       </c>
       <c r="D128" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E128">
         <v>68349</v>
@@ -7955,10 +8331,13 @@
       <c r="P128">
         <v>7.5772871585538928E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q128">
+        <v>7.0755933098732201E-7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2">
         <v>44698</v>
@@ -7967,7 +8346,7 @@
         <v>332</v>
       </c>
       <c r="D129" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E129">
         <v>70722</v>
@@ -8005,10 +8384,13 @@
       <c r="P129">
         <v>7.2707219818444052E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q129">
+        <v>1.4112932668947801E-6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2">
         <v>44699</v>
@@ -8017,7 +8399,7 @@
         <v>333</v>
       </c>
       <c r="D130" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E130">
         <v>73933</v>
@@ -8055,10 +8437,13 @@
       <c r="P130">
         <v>7.4986812384185683E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q130">
+        <v>1.2771422664645591E-6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2">
         <v>44700</v>
@@ -8067,7 +8452,7 @@
         <v>334</v>
       </c>
       <c r="D131" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E131">
         <v>70920</v>
@@ -8105,10 +8490,13 @@
       <c r="P131">
         <v>7.2786238014664412E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q131">
+        <v>4.2388271801016717E-8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2">
         <v>44701</v>
@@ -8117,7 +8505,7 @@
         <v>335</v>
       </c>
       <c r="D132" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E132">
         <v>69884</v>
@@ -8155,10 +8543,13 @@
       <c r="P132">
         <v>7.4952778890733221E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q132">
+        <v>2.3027262077164021E-6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2">
         <v>44702</v>
@@ -8167,7 +8558,7 @@
         <v>336</v>
       </c>
       <c r="D133" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E133">
         <v>66814</v>
@@ -8205,10 +8596,13 @@
       <c r="P133">
         <v>7.4430508576046939E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q133">
+        <v>6.8865514368186998E-7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2">
         <v>44703</v>
@@ -8217,7 +8611,7 @@
         <v>337</v>
       </c>
       <c r="D134" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E134">
         <v>67909</v>
@@ -8255,10 +8649,13 @@
       <c r="P134">
         <v>7.2567700893843234E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <v>1.312243428122148E-6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2">
         <v>44704</v>
@@ -8267,7 +8664,7 @@
         <v>338</v>
       </c>
       <c r="D135" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E135">
         <v>66431</v>
@@ -8305,10 +8702,13 @@
       <c r="P135">
         <v>7.3851063509506099E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q135">
+        <v>5.6624855160394751E-6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2">
         <v>44705</v>
@@ -8317,7 +8717,7 @@
         <v>339</v>
       </c>
       <c r="D136" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E136">
         <v>63380</v>
@@ -8355,10 +8755,13 @@
       <c r="P136">
         <v>7.5875670558535821E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q136">
+        <v>5.1056675718848861E-8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2">
         <v>44706</v>
@@ -8367,7 +8770,7 @@
         <v>340</v>
       </c>
       <c r="D137" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E137">
         <v>62723</v>
@@ -8405,10 +8808,13 @@
       <c r="P137">
         <v>7.708496085965276E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q137">
+        <v>2.4287682866325549E-7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>219</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2">
         <v>44707</v>
@@ -8417,7 +8823,7 @@
         <v>341</v>
       </c>
       <c r="D138" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E138">
         <v>63188</v>
@@ -8455,10 +8861,13 @@
       <c r="P138">
         <v>7.4903462682787872E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q138">
+        <v>3.3017469591012E-7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2">
         <v>44708</v>
@@ -8467,7 +8876,7 @@
         <v>342</v>
       </c>
       <c r="D139" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E139">
         <v>63846</v>
@@ -8505,10 +8914,13 @@
       <c r="P139">
         <v>7.5838736960811948E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q139">
+        <v>4.8086541881380512E-8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2">
         <v>44709</v>
@@ -8517,7 +8929,7 @@
         <v>343</v>
       </c>
       <c r="D140" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E140">
         <v>60069</v>
@@ -8555,10 +8967,13 @@
       <c r="P140">
         <v>7.5945995438578967E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q140">
+        <v>5.8448806786668855E-7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2">
         <v>44710</v>
@@ -8567,7 +8982,7 @@
         <v>344</v>
       </c>
       <c r="D141" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E141">
         <v>56839</v>
@@ -8605,10 +9020,13 @@
       <c r="P141">
         <v>7.8027410756698751E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q141">
+        <v>6.4224108227384429E-9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2">
         <v>44711</v>
@@ -8617,7 +9035,7 @@
         <v>345</v>
       </c>
       <c r="D142" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E142">
         <v>60969</v>
@@ -8655,10 +9073,13 @@
       <c r="P142">
         <v>7.7760829273893287E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q142">
+        <v>4.642643031740344E-7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2">
         <v>44712</v>
@@ -8667,7 +9088,7 @@
         <v>346</v>
       </c>
       <c r="D143" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E143">
         <v>62768</v>
@@ -8705,10 +9126,13 @@
       <c r="P143">
         <v>7.6503951057863881E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q143">
+        <v>1.2110939267774991E-6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2">
         <v>44713</v>
@@ -8717,7 +9141,7 @@
         <v>347</v>
       </c>
       <c r="D144" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E144">
         <v>63241</v>
@@ -8755,10 +9179,13 @@
       <c r="P144">
         <v>7.5852690501415215E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q144">
+        <v>8.7575469700426898E-7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2">
         <v>44714</v>
@@ -8767,7 +9194,7 @@
         <v>348</v>
       </c>
       <c r="D145" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E145">
         <v>61278</v>
@@ -8805,10 +9232,13 @@
       <c r="P145">
         <v>7.7841966121609707E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q145">
+        <v>4.7954351222647097E-6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2">
         <v>44715</v>
@@ -8817,7 +9247,7 @@
         <v>349</v>
       </c>
       <c r="D146" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E146">
         <v>65431</v>
@@ -8855,10 +9285,13 @@
       <c r="P146">
         <v>7.5759196711039103E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q146">
+        <v>2.055111627150624E-6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2">
         <v>44716</v>
@@ -8867,7 +9300,7 @@
         <v>350</v>
       </c>
       <c r="D147" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E147">
         <v>58263</v>
@@ -8905,10 +9338,13 @@
       <c r="P147">
         <v>7.6068860168546082E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q147">
+        <v>7.8756383412129213E-7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2">
         <v>44717</v>
@@ -8917,7 +9353,7 @@
         <v>351</v>
       </c>
       <c r="D148" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E148">
         <v>56738</v>
@@ -8955,10 +9391,13 @@
       <c r="P148">
         <v>7.6298071838979173E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q148">
+        <v>3.6968726100638238E-7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2">
         <v>44718</v>
@@ -8967,7 +9406,7 @@
         <v>352</v>
       </c>
       <c r="D149" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E149">
         <v>58478</v>
@@ -9005,10 +9444,13 @@
       <c r="P149">
         <v>7.7772837648346388E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q149">
+        <v>3.9554539445583251E-7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2">
         <v>44719</v>
@@ -9017,7 +9459,7 @@
         <v>353</v>
       </c>
       <c r="D150" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E150">
         <v>58991</v>
@@ -9055,10 +9497,13 @@
       <c r="P150">
         <v>7.5265718499432116E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q150">
+        <v>1.154451475563898E-6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2">
         <v>44720</v>
@@ -9067,7 +9512,7 @@
         <v>354</v>
       </c>
       <c r="D151" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E151">
         <v>61026</v>
@@ -9105,10 +9550,13 @@
       <c r="P151">
         <v>7.5492413069839087E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q151">
+        <v>1.404680650885603E-6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2">
         <v>44721</v>
@@ -9117,7 +9565,7 @@
         <v>355</v>
       </c>
       <c r="D152" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E152">
         <v>60020</v>
@@ -9155,10 +9603,13 @@
       <c r="P152">
         <v>7.7724091969343559E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q152">
+        <v>4.0102260294719252E-7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2">
         <v>44722</v>
@@ -9167,7 +9618,7 @@
         <v>356</v>
       </c>
       <c r="D153" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E153">
         <v>55376</v>
@@ -9205,10 +9656,13 @@
       <c r="P153">
         <v>7.8084368679572372E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q153">
+        <v>7.6284750786195268E-7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2">
         <v>44723</v>
@@ -9217,7 +9671,7 @@
         <v>357</v>
       </c>
       <c r="D154" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E154">
         <v>51958</v>
@@ -9255,10 +9709,13 @@
       <c r="P154">
         <v>7.8659686670002699E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q154">
+        <v>4.0047945278730301E-7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2">
         <v>44724</v>
@@ -9267,7 +9724,7 @@
         <v>358</v>
       </c>
       <c r="D155" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E155">
         <v>56684</v>
@@ -9305,10 +9762,13 @@
       <c r="P155">
         <v>7.6264907204854987E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q155">
+        <v>1.701506001977408E-6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2">
         <v>44725</v>
@@ -9317,7 +9777,7 @@
         <v>359</v>
       </c>
       <c r="D156" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E156">
         <v>53802</v>
@@ -9355,10 +9815,13 @@
       <c r="P156">
         <v>7.6985985651091035E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q156">
+        <v>4.1551200953359727E-7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2">
         <v>44726</v>
@@ -9367,7 +9830,7 @@
         <v>360</v>
       </c>
       <c r="D157" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E157">
         <v>59968</v>
@@ -9405,10 +9868,13 @@
       <c r="P157">
         <v>7.9409018143009602E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q157">
+        <v>1.9734910930743229E-6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2">
         <v>44727</v>
@@ -9417,7 +9883,7 @@
         <v>361</v>
       </c>
       <c r="D158" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E158">
         <v>55989</v>
@@ -9455,10 +9921,13 @@
       <c r="P158">
         <v>7.8426119416313916E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q158">
+        <v>4.8683145800876745E-7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2">
         <v>44728</v>
@@ -9467,7 +9936,7 @@
         <v>362</v>
       </c>
       <c r="D159" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E159">
         <v>53430</v>
@@ -9505,10 +9974,13 @@
       <c r="P159">
         <v>7.6960509077297401E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q159">
+        <v>6.0033111769569538E-7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2">
         <v>44729</v>
@@ -9517,7 +9989,7 @@
         <v>363</v>
       </c>
       <c r="D160" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E160">
         <v>54665</v>
@@ -9555,10 +10027,13 @@
       <c r="P160">
         <v>7.7764565992865631E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q160">
+        <v>1.8513981770840729E-6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2">
         <v>44730</v>
@@ -9567,7 +10042,7 @@
         <v>364</v>
       </c>
       <c r="D161" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E161">
         <v>47205</v>
@@ -9605,10 +10080,13 @@
       <c r="P161">
         <v>8.6876390212901181E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q161">
+        <v>1.089664331195082E-7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2">
         <v>44731</v>
@@ -9617,7 +10095,7 @@
         <v>365</v>
       </c>
       <c r="D162" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E162">
         <v>55359</v>
@@ -9655,10 +10133,13 @@
       <c r="P162">
         <v>7.9463140591412421E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q162">
+        <v>1.1162913756071309E-6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2">
         <v>44732</v>
@@ -9667,7 +10148,7 @@
         <v>366</v>
       </c>
       <c r="D163" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E163">
         <v>50484</v>
@@ -9705,10 +10186,13 @@
       <c r="P163">
         <v>7.8242611520481731E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q163">
+        <v>1.0749137452110141E-7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2">
         <v>44733</v>
@@ -9717,7 +10201,7 @@
         <v>367</v>
       </c>
       <c r="D164" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E164">
         <v>53342</v>
@@ -9755,10 +10239,13 @@
       <c r="P164">
         <v>7.86247234824341E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q164">
+        <v>7.4079172875206872E-7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2">
         <v>44734</v>
@@ -9767,7 +10254,7 @@
         <v>368</v>
       </c>
       <c r="D165" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E165">
         <v>47645</v>
@@ -9805,10 +10292,13 @@
       <c r="P165">
         <v>8.1036834924965898E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q165">
+        <v>7.6345685410841231E-8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2">
         <v>44735</v>
@@ -9817,7 +10307,7 @@
         <v>369</v>
       </c>
       <c r="D166" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E166">
         <v>53111</v>
@@ -9855,10 +10345,13 @@
       <c r="P166">
         <v>7.7535727062190501E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q166">
+        <v>7.1975956611633814E-6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2">
         <v>44736</v>
@@ -9867,7 +10360,7 @@
         <v>370</v>
       </c>
       <c r="D167" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E167">
         <v>50617</v>
@@ -9905,10 +10398,13 @@
       <c r="P167">
         <v>7.8847027678447951E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q167">
+        <v>1.7522870562215491E-6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2">
         <v>44737</v>
@@ -9917,7 +10413,7 @@
         <v>371</v>
       </c>
       <c r="D168" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E168">
         <v>46089</v>
@@ -9955,10 +10451,13 @@
       <c r="P168">
         <v>7.962854477207143E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q168">
+        <v>4.1878965666762379E-6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2">
         <v>44738</v>
@@ -9967,7 +10466,7 @@
         <v>372</v>
       </c>
       <c r="D169" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E169">
         <v>50450</v>
@@ -10005,10 +10504,13 @@
       <c r="P169">
         <v>7.8374628344895933E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q169">
+        <v>1.384384653839745E-6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2">
         <v>44739</v>
@@ -10017,7 +10519,7 @@
         <v>373</v>
       </c>
       <c r="D170" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E170">
         <v>47986</v>
@@ -10055,10 +10557,13 @@
       <c r="P170">
         <v>8.019005543283457E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q170">
+        <v>1.2223897806268699E-7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2">
         <v>44740</v>
@@ -10067,7 +10572,7 @@
         <v>374</v>
       </c>
       <c r="D171" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E171">
         <v>47312</v>
@@ -10105,10 +10610,13 @@
       <c r="P171">
         <v>8.1247886371322284E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q171">
+        <v>2.3065551579794621E-7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2">
         <v>44741</v>
@@ -10117,7 +10625,7 @@
         <v>375</v>
       </c>
       <c r="D172" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E172">
         <v>45645</v>
@@ -10155,10 +10663,13 @@
       <c r="P172">
         <v>8.6690765691751562E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q172">
+        <v>2.7671415773398781E-7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2">
         <v>44742</v>
@@ -10167,7 +10678,7 @@
         <v>376</v>
       </c>
       <c r="D173" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E173">
         <v>44212</v>
@@ -10205,10 +10716,13 @@
       <c r="P173">
         <v>8.4999547634126482E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q173">
+        <v>5.2432648699947987E-7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2">
         <v>44743</v>
@@ -10217,7 +10731,7 @@
         <v>377</v>
       </c>
       <c r="D174" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E174">
         <v>47248</v>
@@ -10255,10 +10769,13 @@
       <c r="P174">
         <v>8.0257365391127669E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q174">
+        <v>1.057046449847473E-6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2">
         <v>44744</v>
@@ -10267,7 +10784,7 @@
         <v>378</v>
       </c>
       <c r="D175" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E175">
         <v>41765</v>
@@ -10305,10 +10822,13 @@
       <c r="P175">
         <v>8.4161379145217291E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q175">
+        <v>5.423788101492E-8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B176" s="2">
         <v>44745</v>
@@ -10317,7 +10837,7 @@
         <v>379</v>
       </c>
       <c r="D176" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E176">
         <v>40486</v>
@@ -10355,10 +10875,13 @@
       <c r="P176">
         <v>8.5486340957367984E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q176">
+        <v>4.4390759398252792E-8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2">
         <v>44746</v>
@@ -10367,7 +10890,7 @@
         <v>380</v>
       </c>
       <c r="D177" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E177">
         <v>42645</v>
@@ -10405,10 +10928,13 @@
       <c r="P177">
         <v>8.4206823777699613E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q177">
+        <v>2.195088270485961E-6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2">
         <v>44747</v>
@@ -10417,7 +10943,7 @@
         <v>381</v>
       </c>
       <c r="D178" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E178">
         <v>44578</v>
@@ -10455,10 +10981,13 @@
       <c r="P178">
         <v>8.0847054600924229E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q178">
+        <v>3.1287754038862872E-7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2">
         <v>44748</v>
@@ -10467,7 +10996,7 @@
         <v>382</v>
       </c>
       <c r="D179" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E179">
         <v>47344</v>
@@ -10505,10 +11034,13 @@
       <c r="P179">
         <v>8.5522980736735379E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q179">
+        <v>1.0903863761069849E-7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2">
         <v>44749</v>
@@ -10517,7 +11049,7 @@
         <v>383</v>
       </c>
       <c r="D180" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E180">
         <v>43407</v>
@@ -10555,10 +11087,13 @@
       <c r="P180">
         <v>8.4571612873499666E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q180">
+        <v>1.9865052221592401E-7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2">
         <v>44750</v>
@@ -10567,7 +11102,7 @@
         <v>384</v>
       </c>
       <c r="D181" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E181">
         <v>42806</v>
@@ -10605,10 +11140,13 @@
       <c r="P181">
         <v>8.1390459281409144E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q181">
+        <v>2.3411264177341839E-7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2">
         <v>44751</v>
@@ -10617,7 +11155,7 @@
         <v>385</v>
       </c>
       <c r="D182" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E182">
         <v>47094</v>
@@ -10655,10 +11193,13 @@
       <c r="P182">
         <v>8.35138234169958E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q182">
+        <v>6.4097695972185224E-6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2">
         <v>44752</v>
@@ -10667,7 +11208,7 @@
         <v>386</v>
       </c>
       <c r="D183" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E183">
         <v>41785</v>
@@ -10705,10 +11246,13 @@
       <c r="P183">
         <v>8.361852339356228E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q183">
+        <v>3.8199382632635611E-6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2">
         <v>44753</v>
@@ -10717,7 +11261,7 @@
         <v>387</v>
       </c>
       <c r="D184" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E184">
         <v>40545</v>
@@ -10755,10 +11299,13 @@
       <c r="P184">
         <v>8.4597360956961395E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q184">
+        <v>2.049242775911478E-7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2">
         <v>44754</v>
@@ -10767,7 +11314,7 @@
         <v>388</v>
       </c>
       <c r="D185" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E185">
         <v>46910</v>
@@ -10805,10 +11352,13 @@
       <c r="P185">
         <v>8.2498401193775314E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q185">
+        <v>2.158286382770728E-8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2">
         <v>44755</v>
@@ -10817,7 +11367,7 @@
         <v>389</v>
       </c>
       <c r="D186" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E186">
         <v>46246</v>
@@ -10855,10 +11405,13 @@
       <c r="P186">
         <v>8.0590753794922809E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q186">
+        <v>2.252562172627747E-6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2">
         <v>44756</v>
@@ -10867,7 +11420,7 @@
         <v>390</v>
       </c>
       <c r="D187" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E187">
         <v>40549</v>
@@ -10905,10 +11458,13 @@
       <c r="P187">
         <v>8.3553231892278479E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q187">
+        <v>3.8660936762078327E-6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2">
         <v>44757</v>
@@ -10917,7 +11473,7 @@
         <v>391</v>
       </c>
       <c r="D188" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E188">
         <v>39234</v>
@@ -10955,10 +11511,13 @@
       <c r="P188">
         <v>8.5461589437732577E-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q188">
+        <v>4.5105983804499843E-7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2">
         <v>44758</v>
@@ -10967,7 +11526,7 @@
         <v>392</v>
       </c>
       <c r="D189" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E189">
         <v>38769</v>
@@ -11005,10 +11564,13 @@
       <c r="P189">
         <v>8.4603678196497195E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q189">
+        <v>2.8673004920553413E-7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2">
         <v>44759</v>
@@ -11017,7 +11579,7 @@
         <v>393</v>
       </c>
       <c r="D190" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E190">
         <v>39611</v>
@@ -11055,10 +11617,13 @@
       <c r="P190">
         <v>8.444623968089672E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q190">
+        <v>2.4350845880590922E-6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2">
         <v>44760</v>
@@ -11067,7 +11632,7 @@
         <v>394</v>
       </c>
       <c r="D191" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E191">
         <v>42574</v>
@@ -11105,10 +11670,13 @@
       <c r="P191">
         <v>8.33372480856861E-2</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q191">
+        <v>3.95776033169801E-6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2">
         <v>44761</v>
@@ -11117,7 +11685,7 @@
         <v>395</v>
       </c>
       <c r="D192" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E192">
         <v>39667</v>
@@ -11155,10 +11723,13 @@
       <c r="P192">
         <v>8.4654750800413445E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q192">
+        <v>3.9950733916766411E-6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2">
         <v>44762</v>
@@ -11167,7 +11738,7 @@
         <v>396</v>
       </c>
       <c r="D193" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E193">
         <v>42237</v>
@@ -11205,10 +11776,13 @@
       <c r="P193">
         <v>8.7245779766555384E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q193">
+        <v>2.9315074453264762E-6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2">
         <v>44763</v>
@@ -11217,7 +11791,7 @@
         <v>397</v>
       </c>
       <c r="D194" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E194">
         <v>39086</v>
@@ -11255,10 +11829,13 @@
       <c r="P194">
         <v>8.6143376144911216E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q194">
+        <v>1.1537342000025479E-6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2">
         <v>44764</v>
@@ -11267,7 +11844,7 @@
         <v>398</v>
       </c>
       <c r="D195" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E195">
         <v>43099</v>
@@ -11305,10 +11882,13 @@
       <c r="P195">
         <v>8.5036775795262073E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q195">
+        <v>6.4290917459269611E-7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2">
         <v>44765</v>
@@ -11317,7 +11897,7 @@
         <v>399</v>
       </c>
       <c r="D196" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E196">
         <v>36769</v>
@@ -11355,10 +11935,13 @@
       <c r="P196">
         <v>8.4609317631700612E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q196">
+        <v>2.686945111666467E-6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2">
         <v>44766</v>
@@ -11367,7 +11950,7 @@
         <v>400</v>
       </c>
       <c r="D197" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E197">
         <v>39813</v>
@@ -11405,10 +11988,13 @@
       <c r="P197">
         <v>8.5424358877753501E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q197">
+        <v>2.2861938144302331E-6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2">
         <v>44767</v>
@@ -11417,7 +12003,7 @@
         <v>401</v>
       </c>
       <c r="D198" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E198">
         <v>39228</v>
@@ -11455,10 +12041,13 @@
       <c r="P198">
         <v>8.5117773019271953E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q198">
+        <v>4.9926893621442692E-7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2">
         <v>44768</v>
@@ -11467,7 +12056,7 @@
         <v>402</v>
       </c>
       <c r="D199" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E199">
         <v>39171</v>
@@ -11505,10 +12094,13 @@
       <c r="P199">
         <v>8.953052002757142E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q199">
+        <v>1.5553831788030619E-6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2">
         <v>44769</v>
@@ -11517,7 +12109,7 @@
         <v>403</v>
       </c>
       <c r="D200" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="E200">
         <v>38384</v>
@@ -11555,10 +12147,13 @@
       <c r="P200">
         <v>8.558253438932889E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q200">
+        <v>6.5478485341200539E-8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2">
         <v>44770</v>
@@ -11567,7 +12162,7 @@
         <v>404</v>
       </c>
       <c r="D201" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E201">
         <v>40650</v>
@@ -11605,10 +12200,13 @@
       <c r="P201">
         <v>8.5854858548585489E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q201">
+        <v>2.379168351506295E-6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2">
         <v>44771</v>
@@ -11617,7 +12215,7 @@
         <v>405</v>
       </c>
       <c r="D202" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E202">
         <v>37791</v>
@@ -11655,10 +12253,13 @@
       <c r="P202">
         <v>8.5020242914979755E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q202">
+        <v>7.8791283658499667E-8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2">
         <v>44772</v>
@@ -11667,7 +12268,7 @@
         <v>406</v>
       </c>
       <c r="D203" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E203">
         <v>37353</v>
@@ -11705,10 +12306,13 @@
       <c r="P203">
         <v>8.4892779696409931E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q203">
+        <v>8.184931746522057E-8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2">
         <v>44773</v>
@@ -11717,7 +12321,7 @@
         <v>407</v>
       </c>
       <c r="D204" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E204">
         <v>39250</v>
@@ -11755,10 +12359,13 @@
       <c r="P204">
         <v>8.58343949044586E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q204">
+        <v>6.9352695197105736E-7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2">
         <v>44774</v>
@@ -11767,7 +12374,7 @@
         <v>408</v>
       </c>
       <c r="D205" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E205">
         <v>36662</v>
@@ -11805,10 +12412,13 @@
       <c r="P205">
         <v>9.0093284599858159E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q205">
+        <v>1.0900608797754151E-6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2">
         <v>44775</v>
@@ -11817,7 +12427,7 @@
         <v>409</v>
       </c>
       <c r="D206" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E206">
         <v>34909</v>
@@ -11855,10 +12465,13 @@
       <c r="P206">
         <v>9.6823168810335439E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q206">
+        <v>2.010290962132322E-7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2">
         <v>44776</v>
@@ -11867,7 +12480,7 @@
         <v>410</v>
       </c>
       <c r="D207" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E207">
         <v>38381</v>
@@ -11905,10 +12518,13 @@
       <c r="P207">
         <v>8.6683515280998408E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q207">
+        <v>7.7784082382349822E-8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2">
         <v>44777</v>
@@ -11917,7 +12533,7 @@
         <v>411</v>
       </c>
       <c r="D208" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E208">
         <v>37229</v>
@@ -11955,10 +12571,13 @@
       <c r="P208">
         <v>8.9607563995809714E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q208">
+        <v>5.3155367849295673E-8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2">
         <v>44778</v>
@@ -11967,7 +12586,7 @@
         <v>412</v>
       </c>
       <c r="D209" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E209">
         <v>37350</v>
@@ -12005,10 +12624,13 @@
       <c r="P209">
         <v>9.1780455153949128E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q209">
+        <v>9.1566710112030299E-7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2">
         <v>44779</v>
@@ -12017,7 +12639,7 @@
         <v>413</v>
       </c>
       <c r="D210" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E210">
         <v>38841</v>
@@ -12055,10 +12677,13 @@
       <c r="P210">
         <v>8.7407636260652399E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q210">
+        <v>3.0668629361445988E-7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2">
         <v>44780</v>
@@ -12067,7 +12692,7 @@
         <v>414</v>
       </c>
       <c r="D211" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E211">
         <v>36223</v>
@@ -12105,10 +12730,13 @@
       <c r="P211">
         <v>8.8065593683571211E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q211">
+        <v>2.895339569996358E-6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2">
         <v>44781</v>
@@ -12117,7 +12745,7 @@
         <v>415</v>
       </c>
       <c r="D212" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E212">
         <v>35516</v>
@@ -12155,10 +12783,13 @@
       <c r="P212">
         <v>8.9734204302286291E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q212">
+        <v>2.009261846817511E-7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2">
         <v>44782</v>
@@ -12167,7 +12798,7 @@
         <v>416</v>
       </c>
       <c r="D213" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E213">
         <v>36223</v>
@@ -12205,10 +12836,13 @@
       <c r="P213">
         <v>8.3344836153824917E-2</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q213">
+        <v>2.415168735104996E-7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2">
         <v>44783</v>
@@ -12217,7 +12851,7 @@
         <v>417</v>
       </c>
       <c r="D214" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E214">
         <v>37654</v>
@@ -12255,10 +12889,13 @@
       <c r="P214">
         <v>8.7958782599458218E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q214">
+        <v>1.7255920917383739E-6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2">
         <v>44784</v>
@@ -12267,7 +12904,7 @@
         <v>418</v>
       </c>
       <c r="D215" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E215">
         <v>37301</v>
@@ -12305,10 +12942,13 @@
       <c r="P215">
         <v>8.6941368864105514E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q215">
+        <v>4.588935652601547E-7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2">
         <v>44785</v>
@@ -12317,7 +12957,7 @@
         <v>419</v>
       </c>
       <c r="D216" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E216">
         <v>34198</v>
@@ -12355,10 +12995,13 @@
       <c r="P216">
         <v>8.9946780513480318E-2</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q216">
+        <v>2.3558445710205751E-7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2">
         <v>44786</v>
@@ -12367,7 +13010,7 @@
         <v>420</v>
       </c>
       <c r="D217" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E217">
         <v>35276</v>
@@ -12405,10 +13048,13 @@
       <c r="P217">
         <v>9.0288014514117249E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q217">
+        <v>2.286299266558443E-6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2">
         <v>44787</v>
@@ -12417,7 +13063,7 @@
         <v>421</v>
       </c>
       <c r="D218" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E218">
         <v>31652</v>
@@ -12455,10 +13101,13 @@
       <c r="P218">
         <v>9.3769745987615311E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q218">
+        <v>1.78678965390005E-9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2">
         <v>44788</v>
@@ -12467,7 +13116,7 @@
         <v>422</v>
       </c>
       <c r="D219" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E219">
         <v>35376</v>
@@ -12505,10 +13154,13 @@
       <c r="P219">
         <v>8.9891451831750332E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q219">
+        <v>2.755680044179298E-6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2">
         <v>44789</v>
@@ -12517,7 +13169,7 @@
         <v>423</v>
       </c>
       <c r="D220" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E220">
         <v>35105</v>
@@ -12555,10 +13207,13 @@
       <c r="P220">
         <v>8.7936191425722829E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q220">
+        <v>1.602591647108037E-7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2">
         <v>44790</v>
@@ -12567,7 +13222,7 @@
         <v>424</v>
       </c>
       <c r="D221" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E221">
         <v>35815</v>
@@ -12605,10 +13260,13 @@
       <c r="P221">
         <v>8.8594164456233415E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q221">
+        <v>9.1937985363102876E-7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2">
         <v>44791</v>
@@ -12617,7 +13275,7 @@
         <v>425</v>
       </c>
       <c r="D222" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E222">
         <v>34938</v>
@@ -12655,10 +13313,13 @@
       <c r="P222">
         <v>9.0789398362814133E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q222">
+        <v>4.5963826558291437E-7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2">
         <v>44792</v>
@@ -12667,7 +13328,7 @@
         <v>426</v>
       </c>
       <c r="D223" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E223">
         <v>33965</v>
@@ -12705,10 +13366,13 @@
       <c r="P223">
         <v>8.7943471220373909E-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q223">
+        <v>1.0685015869573769E-7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>133</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2">
         <v>44793</v>
@@ -12717,7 +13381,7 @@
         <v>427</v>
       </c>
       <c r="D224" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E224">
         <v>38245</v>
@@ -12755,10 +13419,13 @@
       <c r="P224">
         <v>8.4952281343966526E-2</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q224">
+        <v>1.6264071381065229E-6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2">
         <v>44794</v>
@@ -12767,7 +13434,7 @@
         <v>428</v>
       </c>
       <c r="D225" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E225">
         <v>35617</v>
@@ -12805,10 +13472,13 @@
       <c r="P225">
         <v>8.9451666339107727E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q225">
+        <v>2.8471586096597308E-6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2">
         <v>44795</v>
@@ -12817,7 +13487,7 @@
         <v>429</v>
       </c>
       <c r="D226" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E226">
         <v>35888</v>
@@ -12855,10 +13525,13 @@
       <c r="P226">
         <v>8.7020731163620149E-2</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q226">
+        <v>7.1051995153753773E-6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2">
         <v>44796</v>
@@ -12867,7 +13540,7 @@
         <v>430</v>
       </c>
       <c r="D227" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E227">
         <v>33549</v>
@@ -12905,10 +13578,13 @@
       <c r="P227">
         <v>8.7424364362574142E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q227">
+        <v>2.3227096815607259E-7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2">
         <v>44797</v>
@@ -12917,7 +13593,7 @@
         <v>431</v>
       </c>
       <c r="D228" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E228">
         <v>33700</v>
@@ -12955,10 +13631,13 @@
       <c r="P228">
         <v>8.6854599406528191E-2</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q228">
+        <v>6.4845811811965942E-8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2">
         <v>44798</v>
@@ -12967,7 +13646,7 @@
         <v>432</v>
       </c>
       <c r="D229" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E229">
         <v>36737</v>
@@ -13005,10 +13684,13 @@
       <c r="P229">
         <v>8.642512997795139E-2</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q229">
+        <v>9.8177000476229714E-7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2">
         <v>44799</v>
@@ -13017,7 +13699,7 @@
         <v>433</v>
       </c>
       <c r="D230" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E230">
         <v>34716</v>
@@ -13055,10 +13737,13 @@
       <c r="P230">
         <v>8.7740523101739826E-2</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q230">
+        <v>6.5027508492587592E-7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2">
         <v>44800</v>
@@ -13067,7 +13752,7 @@
         <v>434</v>
       </c>
       <c r="D231" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E231">
         <v>31241</v>
@@ -13105,10 +13790,13 @@
       <c r="P231">
         <v>8.9113664735443812E-2</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q231">
+        <v>4.5376549612557919E-7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>125</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2">
         <v>44801</v>
@@ -13117,7 +13805,7 @@
         <v>435</v>
       </c>
       <c r="D232" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E232">
         <v>30214</v>
@@ -13155,10 +13843,13 @@
       <c r="P232">
         <v>9.4856688952141388E-2</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q232">
+        <v>9.1224447604611343E-7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2">
         <v>44802</v>
@@ -13167,7 +13858,7 @@
         <v>436</v>
       </c>
       <c r="D233" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E233">
         <v>34281</v>
@@ -13205,10 +13896,13 @@
       <c r="P233">
         <v>8.9612321694232958E-2</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q233">
+        <v>6.8344704261676925E-8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2">
         <v>44803</v>
@@ -13217,7 +13911,7 @@
         <v>437</v>
       </c>
       <c r="D234" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="E234">
         <v>33660</v>
@@ -13255,10 +13949,13 @@
       <c r="P234">
         <v>8.9393939393939401E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q234">
+        <v>2.097870783814301E-8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2">
         <v>44804</v>
@@ -13267,7 +13964,7 @@
         <v>438</v>
       </c>
       <c r="D235" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E235">
         <v>35343</v>
@@ -13305,10 +14002,13 @@
       <c r="P235">
         <v>8.9579266049854292E-2</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q235">
+        <v>2.0029637129503581E-6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2">
         <v>44805</v>
@@ -13317,7 +14017,7 @@
         <v>439</v>
       </c>
       <c r="D236" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E236">
         <v>31903</v>
@@ -13355,10 +14055,13 @@
       <c r="P236">
         <v>9.1778202676864248E-2</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q236">
+        <v>9.5923839234254576E-8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2">
         <v>44806</v>
@@ -13367,7 +14070,7 @@
         <v>440</v>
       </c>
       <c r="D237" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E237">
         <v>35724</v>
@@ -13405,10 +14108,13 @@
       <c r="P237">
         <v>8.8148023737543393E-2</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q237">
+        <v>5.3263058369788058E-7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2">
         <v>44807</v>
@@ -13417,7 +14123,7 @@
         <v>441</v>
       </c>
       <c r="D238" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E238">
         <v>31191</v>
@@ -13455,10 +14161,13 @@
       <c r="P238">
         <v>9.2238145618928541E-2</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q238">
+        <v>4.768739509145637E-7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2">
         <v>44808</v>
@@ -13467,7 +14176,7 @@
         <v>442</v>
       </c>
       <c r="D239" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E239">
         <v>32018</v>
@@ -13505,10 +14214,13 @@
       <c r="P239">
         <v>9.0230495346367665E-2</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q239">
+        <v>3.3586256556501409E-6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2">
         <v>44809</v>
@@ -13517,7 +14229,7 @@
         <v>443</v>
       </c>
       <c r="D240" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="E240">
         <v>32733</v>
@@ -13555,10 +14267,13 @@
       <c r="P240">
         <v>9.0734121528732475E-2</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q240">
+        <v>5.2257946845192331E-8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2">
         <v>44810</v>
@@ -13567,7 +14282,7 @@
         <v>444</v>
       </c>
       <c r="D241" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E241">
         <v>32734</v>
@@ -13605,10 +14320,13 @@
       <c r="P241">
         <v>9.2319912018085176E-2</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q241">
+        <v>1.591530995912152E-6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2">
         <v>44811</v>
@@ -13617,7 +14335,7 @@
         <v>445</v>
       </c>
       <c r="D242" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E242">
         <v>30992</v>
@@ -13655,10 +14373,13 @@
       <c r="P242">
         <v>9.2701342281879193E-2</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q242">
+        <v>5.5227773684953912E-7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2">
         <v>44812</v>
@@ -13667,7 +14388,7 @@
         <v>446</v>
       </c>
       <c r="D243" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="E243">
         <v>31962</v>
@@ -13705,10 +14426,13 @@
       <c r="P243">
         <v>9.3892747637819907E-2</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q243">
+        <v>3.8754991360929579E-8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2">
         <v>44813</v>
@@ -13717,7 +14441,7 @@
         <v>447</v>
       </c>
       <c r="D244" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E244">
         <v>32172</v>
@@ -13755,10 +14479,13 @@
       <c r="P244">
         <v>9.0420241203531024E-2</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q244">
+        <v>6.1170859826570435E-7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2">
         <v>44814</v>
@@ -13767,7 +14494,7 @@
         <v>448</v>
       </c>
       <c r="D245" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E245">
         <v>29237</v>
@@ -13805,10 +14532,13 @@
       <c r="P245">
         <v>9.4982385333652566E-2</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q245">
+        <v>2.5122502105504941E-7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2">
         <v>44815</v>
@@ -13817,7 +14547,7 @@
         <v>449</v>
       </c>
       <c r="D246" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E246">
         <v>27887</v>
@@ -13855,10 +14585,13 @@
       <c r="P246">
         <v>9.5922831426829711E-2</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q246">
+        <v>2.5033437195439871E-9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>110</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2">
         <v>44816</v>
@@ -13867,7 +14600,7 @@
         <v>450</v>
       </c>
       <c r="D247" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E247">
         <v>29147</v>
@@ -13905,10 +14638,13 @@
       <c r="P247">
         <v>9.8912409510412733E-2</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q247">
+        <v>7.6831794704021755E-7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2">
         <v>44817</v>
@@ -13917,7 +14653,7 @@
         <v>451</v>
       </c>
       <c r="D248" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E248">
         <v>29497</v>
@@ -13955,10 +14691,13 @@
       <c r="P248">
         <v>9.1738142861985963E-2</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q248">
+        <v>8.5112246834828559E-8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>108</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2">
         <v>44818</v>
@@ -13967,7 +14706,7 @@
         <v>452</v>
       </c>
       <c r="D249" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E249">
         <v>32142</v>
@@ -14005,10 +14744,13 @@
       <c r="P249">
         <v>9.1406881961296746E-2</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q249">
+        <v>2.087455591581715E-6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2">
         <v>44819</v>
@@ -14017,7 +14759,7 @@
         <v>453</v>
       </c>
       <c r="D250" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E250">
         <v>33344</v>
@@ -14055,10 +14797,13 @@
       <c r="P250">
         <v>9.0301103646833011E-2</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q250">
+        <v>6.7935171084863031E-8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>106</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2">
         <v>44820</v>
@@ -14067,7 +14812,7 @@
         <v>454</v>
       </c>
       <c r="D251" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E251">
         <v>37309</v>
@@ -14105,10 +14850,13 @@
       <c r="P251">
         <v>0.1106971508215176</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q251">
+        <v>2.4239778166391982E-6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>105</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2">
         <v>44821</v>
@@ -14117,7 +14865,7 @@
         <v>455</v>
       </c>
       <c r="D252" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E252">
         <v>33418</v>
@@ -14155,10 +14903,13 @@
       <c r="P252">
         <v>9.1956430666108091E-2</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q252">
+        <v>7.6697945893659644E-6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2">
         <v>44822</v>
@@ -14167,7 +14918,7 @@
         <v>456</v>
       </c>
       <c r="D253" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E253">
         <v>33102</v>
@@ -14205,10 +14956,13 @@
       <c r="P253">
         <v>9.1776931907437617E-2</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q253">
+        <v>5.6567658337000412E-6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2">
         <v>44823</v>
@@ -14217,7 +14971,7 @@
         <v>457</v>
       </c>
       <c r="D254" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E254">
         <v>35050</v>
@@ -14255,10 +15009,13 @@
       <c r="P254">
         <v>9.7860199714693299E-2</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q254">
+        <v>2.7227787972918931E-6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2">
         <v>44824</v>
@@ -14267,7 +15024,7 @@
         <v>458</v>
       </c>
       <c r="D255" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E255">
         <v>31277</v>
@@ -14305,10 +15062,13 @@
       <c r="P255">
         <v>9.0897464590593724E-2</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q255">
+        <v>8.3046714142597737E-7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2">
         <v>44825</v>
@@ -14317,7 +15077,7 @@
         <v>459</v>
       </c>
       <c r="D256" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E256">
         <v>31976</v>
@@ -14355,10 +15115,13 @@
       <c r="P256">
         <v>9.0693019764823621E-2</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q256">
+        <v>7.8843986858271251E-8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2">
         <v>44826</v>
@@ -14367,7 +15130,7 @@
         <v>460</v>
       </c>
       <c r="D257" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E257">
         <v>34455</v>
@@ -14405,10 +15168,13 @@
       <c r="P257">
         <v>9.0523871716731971E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q257">
+        <v>1.861522005139753E-6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2">
         <v>44827</v>
@@ -14417,7 +15183,7 @@
         <v>461</v>
       </c>
       <c r="D258" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E258">
         <v>31509</v>
@@ -14455,10 +15221,13 @@
       <c r="P258">
         <v>9.1815036973563108E-2</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q258">
+        <v>6.4947861853505804E-6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>98</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2">
         <v>44828</v>
@@ -14467,7 +15236,7 @@
         <v>462</v>
       </c>
       <c r="D259" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E259">
         <v>32777</v>
@@ -14505,10 +15274,13 @@
       <c r="P259">
         <v>9.3876803856362698E-2</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q259">
+        <v>1.8333975895536149E-6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2">
         <v>44829</v>
@@ -14517,7 +15289,7 @@
         <v>463</v>
       </c>
       <c r="D260" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E260">
         <v>28994</v>
@@ -14555,10 +15327,13 @@
       <c r="P260">
         <v>9.232944747189073E-2</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q260">
+        <v>2.5136319040243078E-7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2">
         <v>44830</v>
@@ -14567,7 +15342,7 @@
         <v>464</v>
       </c>
       <c r="D261" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E261">
         <v>31706</v>
@@ -14605,10 +15380,13 @@
       <c r="P261">
         <v>9.0960701444521536E-2</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q261">
+        <v>8.4026229890504608E-7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2">
         <v>44831</v>
@@ -14617,7 +15395,7 @@
         <v>465</v>
       </c>
       <c r="D262" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E262">
         <v>30985</v>
@@ -14655,10 +15433,13 @@
       <c r="P262">
         <v>9.320639018880103E-2</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q262">
+        <v>2.8386715957241981E-7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2">
         <v>44832</v>
@@ -14667,7 +15448,7 @@
         <v>466</v>
       </c>
       <c r="D263" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E263">
         <v>31355</v>
@@ -14705,10 +15486,13 @@
       <c r="P263">
         <v>9.5901770052623181E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q263">
+        <v>4.7244780832266822E-9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2">
         <v>44833</v>
@@ -14717,7 +15501,7 @@
         <v>467</v>
       </c>
       <c r="D264" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E264">
         <v>30477</v>
@@ -14755,10 +15539,13 @@
       <c r="P264">
         <v>9.2824096859927152E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q264">
+        <v>2.8533008885340099E-6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2">
         <v>44834</v>
@@ -14767,7 +15554,7 @@
         <v>468</v>
       </c>
       <c r="D265" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E265">
         <v>31223</v>
@@ -14805,10 +15592,13 @@
       <c r="P265">
         <v>9.1567113986484316E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q265">
+        <v>3.3020504563857958E-7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2">
         <v>44835</v>
@@ -14817,7 +15607,7 @@
         <v>469</v>
       </c>
       <c r="D266" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E266">
         <v>28202</v>
@@ -14855,10 +15645,13 @@
       <c r="P266">
         <v>9.5596057017232824E-2</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q266">
+        <v>1.121814152975626E-6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>90</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2">
         <v>44836</v>
@@ -14867,7 +15660,7 @@
         <v>470</v>
       </c>
       <c r="D267" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E267">
         <v>30088</v>
@@ -14905,10 +15698,13 @@
       <c r="P267">
         <v>9.2229460249933531E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q267">
+        <v>3.64812064013475E-6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>89</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2">
         <v>44837</v>
@@ -14917,7 +15713,7 @@
         <v>471</v>
       </c>
       <c r="D268" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E268">
         <v>32288</v>
@@ -14955,10 +15751,13 @@
       <c r="P268">
         <v>9.1953666997026756E-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q268">
+        <v>5.6161291904614124E-6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2">
         <v>44838</v>
@@ -14967,7 +15766,7 @@
         <v>472</v>
       </c>
       <c r="D269" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="E269">
         <v>32014</v>
@@ -15005,10 +15804,13 @@
       <c r="P269">
         <v>9.5583182357718496E-2</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q269">
+        <v>6.491398355872718E-7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2">
         <v>44839</v>
@@ -15017,7 +15819,7 @@
         <v>473</v>
       </c>
       <c r="D270" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E270">
         <v>30935</v>
@@ -15055,10 +15857,13 @@
       <c r="P270">
         <v>9.3260061419104576E-2</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q270">
+        <v>2.325363301989828E-7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>86</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2">
         <v>44840</v>
@@ -15067,7 +15872,7 @@
         <v>474</v>
       </c>
       <c r="D271" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E271">
         <v>32522</v>
@@ -15105,10 +15910,13 @@
       <c r="P271">
         <v>9.184551995572228E-2</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q271">
+        <v>3.3389033773027751E-6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2">
         <v>44841</v>
@@ -15117,7 +15925,7 @@
         <v>475</v>
       </c>
       <c r="D272" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="E272">
         <v>29026</v>
@@ -15155,10 +15963,13 @@
       <c r="P272">
         <v>9.7843312891890036E-2</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q272">
+        <v>8.0823892346486714E-7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2">
         <v>44842</v>
@@ -15167,7 +15978,7 @@
         <v>476</v>
       </c>
       <c r="D273" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E273">
         <v>26905</v>
@@ -15205,10 +16016,13 @@
       <c r="P273">
         <v>9.8197361085300125E-2</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q273">
+        <v>2.6554443164114599E-7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>83</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2">
         <v>44843</v>
@@ -15217,7 +16031,7 @@
         <v>477</v>
       </c>
       <c r="D274" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E274">
         <v>28408</v>
@@ -15255,10 +16069,13 @@
       <c r="P274">
         <v>9.3917206420726554E-2</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q274">
+        <v>6.1526337417735883E-7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2">
         <v>44844</v>
@@ -15267,7 +16084,7 @@
         <v>478</v>
       </c>
       <c r="D275" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E275">
         <v>26878</v>
@@ -15305,10 +16122,13 @@
       <c r="P275">
         <v>9.8742465957288486E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q275">
+        <v>1.3365442323466321E-7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2">
         <v>44845</v>
@@ -15317,7 +16137,7 @@
         <v>479</v>
       </c>
       <c r="D276" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E276">
         <v>28575</v>
@@ -15355,10 +16175,13 @@
       <c r="P276">
         <v>9.6307961504811898E-2</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q276">
+        <v>8.8018297076361472E-7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2">
         <v>44846</v>
@@ -15367,7 +16190,7 @@
         <v>480</v>
       </c>
       <c r="D277" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E277">
         <v>29151</v>
@@ -15405,10 +16228,13 @@
       <c r="P277">
         <v>0.10109430208226131</v>
       </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q277">
+        <v>1.5329445660675998E-8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2">
         <v>44847</v>
@@ -15417,7 +16243,7 @@
         <v>481</v>
       </c>
       <c r="D278" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="E278">
         <v>27197</v>
@@ -15455,10 +16281,13 @@
       <c r="P278">
         <v>9.8429973894179498E-2</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q278">
+        <v>2.7394729010393788E-7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2">
         <v>44848</v>
@@ -15467,7 +16296,7 @@
         <v>482</v>
       </c>
       <c r="D279" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E279">
         <v>28906</v>
@@ -15505,10 +16334,13 @@
       <c r="P279">
         <v>9.5205147720196504E-2</v>
       </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q279">
+        <v>4.2673262748023477E-6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2">
         <v>44849</v>
@@ -15517,7 +16349,7 @@
         <v>483</v>
       </c>
       <c r="D280" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="E280">
         <v>30403</v>
@@ -15555,10 +16387,13 @@
       <c r="P280">
         <v>0.1027201263033253</v>
       </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q280">
+        <v>2.4808133213461099E-6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2">
         <v>44850</v>
@@ -15567,7 +16402,7 @@
         <v>484</v>
       </c>
       <c r="D281" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E281">
         <v>30459</v>
@@ -15605,10 +16440,13 @@
       <c r="P281">
         <v>9.3699727502544405E-2</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q281">
+        <v>2.2780799901262548E-6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>75</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2">
         <v>44851</v>
@@ -15617,7 +16455,7 @@
         <v>485</v>
       </c>
       <c r="D282" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="E282">
         <v>31269</v>
@@ -15655,10 +16493,13 @@
       <c r="P282">
         <v>9.482234801240845E-2</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q282">
+        <v>3.5252010918588571E-6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2">
         <v>44852</v>
@@ -15667,7 +16508,7 @@
         <v>486</v>
       </c>
       <c r="D283" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="E283">
         <v>28612</v>
@@ -15705,10 +16546,13 @@
       <c r="P283">
         <v>9.8035789179365299E-2</v>
       </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q283">
+        <v>7.6966775212509007E-7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2">
         <v>44853</v>
@@ -15717,7 +16561,7 @@
         <v>487</v>
       </c>
       <c r="D284" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E284">
         <v>28322</v>
@@ -15755,10 +16599,13 @@
       <c r="P284">
         <v>9.8651225195960743E-2</v>
       </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q284">
+        <v>8.454067619595667E-8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2">
         <v>44854</v>
@@ -15767,7 +16614,7 @@
         <v>488</v>
       </c>
       <c r="D285" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E285">
         <v>28741</v>
@@ -15805,10 +16652,13 @@
       <c r="P285">
         <v>9.6343203089662849E-2</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q285">
+        <v>7.4359643787978962E-8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2">
         <v>44855</v>
@@ -15817,7 +16667,7 @@
         <v>489</v>
       </c>
       <c r="D286" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E286">
         <v>28637</v>
@@ -15855,10 +16705,13 @@
       <c r="P286">
         <v>9.7566085833013239E-2</v>
       </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q286">
+        <v>3.8912928431342029E-6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>70</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2">
         <v>44856</v>
@@ -15867,7 +16720,7 @@
         <v>490</v>
       </c>
       <c r="D287" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E287">
         <v>29084</v>
@@ -15905,10 +16758,13 @@
       <c r="P287">
         <v>9.6616696465410531E-2</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q287">
+        <v>8.4936423929430059E-7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>69</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2">
         <v>44857</v>
@@ -15917,7 +16773,7 @@
         <v>491</v>
       </c>
       <c r="D288" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E288">
         <v>29279</v>
@@ -15955,10 +16811,13 @@
       <c r="P288">
         <v>0.1031797534068787</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q288">
+        <v>6.9188934405613159E-8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>68</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2">
         <v>44858</v>
@@ -15967,7 +16826,7 @@
         <v>492</v>
       </c>
       <c r="D289" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E289">
         <v>28947</v>
@@ -16005,10 +16864,13 @@
       <c r="P289">
         <v>9.5623035202266213E-2</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q289">
+        <v>2.0577548020890799E-7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>67</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2">
         <v>44859</v>
@@ -16017,7 +16879,7 @@
         <v>493</v>
       </c>
       <c r="D290" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="E290">
         <v>28953</v>
@@ -16055,10 +16917,13 @@
       <c r="P290">
         <v>9.7295617034504192E-2</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q290">
+        <v>6.3337859979596165E-7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>66</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2">
         <v>44860</v>
@@ -16067,7 +16932,7 @@
         <v>494</v>
       </c>
       <c r="D291" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E291">
         <v>30063</v>
@@ -16105,10 +16970,13 @@
       <c r="P291">
         <v>9.6597145993413833E-2</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q291">
+        <v>1.0587148456748321E-5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2">
         <v>44861</v>
@@ -16117,7 +16985,7 @@
         <v>495</v>
       </c>
       <c r="D292" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E292">
         <v>27609</v>
@@ -16155,10 +17023,13 @@
       <c r="P292">
         <v>9.4715491325292472E-2</v>
       </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q292">
+        <v>6.5704057523961305E-7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>64</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2">
         <v>44862</v>
@@ -16167,7 +17038,7 @@
         <v>496</v>
       </c>
       <c r="D293" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E293">
         <v>27905</v>
@@ -16205,10 +17076,13 @@
       <c r="P293">
         <v>9.4463357821178998E-2</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q293">
+        <v>7.8620248961566549E-7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2">
         <v>44863</v>
@@ -16217,7 +17091,7 @@
         <v>497</v>
       </c>
       <c r="D294" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="E294">
         <v>25156</v>
@@ -16255,10 +17129,13 @@
       <c r="P294">
         <v>0.1008109397360471</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q294">
+        <v>2.5191209274279422E-7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>62</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2">
         <v>44864</v>
@@ -16267,7 +17144,7 @@
         <v>498</v>
       </c>
       <c r="D295" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="E295">
         <v>24672</v>
@@ -16305,10 +17182,13 @@
       <c r="P295">
         <v>0.10116731517509731</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q295">
+        <v>3.7491184799966662E-8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>61</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2">
         <v>44865</v>
@@ -16317,7 +17197,7 @@
         <v>499</v>
       </c>
       <c r="D296" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E296">
         <v>26498</v>
@@ -16355,10 +17235,13 @@
       <c r="P296">
         <v>9.7063929353158732E-2</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q296">
+        <v>1.3996708991987559E-7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2">
         <v>44866</v>
@@ -16367,7 +17250,7 @@
         <v>500</v>
       </c>
       <c r="D297" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="E297">
         <v>27502</v>
@@ -16405,10 +17288,13 @@
       <c r="P297">
         <v>0.13333575739946191</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q297">
+        <v>2.811468999074837E-6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>59</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2">
         <v>44867</v>
@@ -16417,7 +17303,7 @@
         <v>501</v>
       </c>
       <c r="D298" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E298">
         <v>27670</v>
@@ -16455,10 +17341,13 @@
       <c r="P298">
         <v>9.541019154318757E-2</v>
       </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q298">
+        <v>7.6543308450190891E-7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2">
         <v>44868</v>
@@ -16467,7 +17356,7 @@
         <v>502</v>
       </c>
       <c r="D299" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E299">
         <v>29554</v>
@@ -16505,10 +17394,13 @@
       <c r="P299">
         <v>9.538471949651485E-2</v>
       </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q299">
+        <v>3.723098737016349E-6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>57</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2">
         <v>44869</v>
@@ -16517,7 +17409,7 @@
         <v>503</v>
       </c>
       <c r="D300" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="E300">
         <v>27330</v>
@@ -16555,10 +17447,13 @@
       <c r="P300">
         <v>9.3852908891328204E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q300">
+        <v>3.2077980764347969E-7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>56</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2">
         <v>44870</v>
@@ -16567,7 +17462,7 @@
         <v>504</v>
       </c>
       <c r="D301" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="E301">
         <v>29743</v>
@@ -16605,10 +17500,13 @@
       <c r="P301">
         <v>9.2492351141445051E-2</v>
       </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q301">
+        <v>1.288095459144358E-7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2">
         <v>44871</v>
@@ -16617,7 +17515,7 @@
         <v>505</v>
       </c>
       <c r="D302" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E302">
         <v>31068</v>
@@ -16655,10 +17553,13 @@
       <c r="P302">
         <v>9.6980816273979656E-2</v>
       </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q302">
+        <v>8.9941830420981333E-6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>54</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2">
         <v>44872</v>
@@ -16667,7 +17568,7 @@
         <v>506</v>
       </c>
       <c r="D303" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E303">
         <v>26096</v>
@@ -16705,10 +17606,13 @@
       <c r="P303">
         <v>9.3462599632127524E-2</v>
       </c>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q303">
+        <v>4.2338798006843397E-7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>53</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2">
         <v>44873</v>
@@ -16717,7 +17621,7 @@
         <v>507</v>
       </c>
       <c r="D304" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="E304">
         <v>27213</v>
@@ -16755,10 +17659,13 @@
       <c r="P304">
         <v>9.3007018704295744E-2</v>
       </c>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q304">
+        <v>1.6560962966935199E-6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2">
         <v>44874</v>
@@ -16767,7 +17674,7 @@
         <v>508</v>
       </c>
       <c r="D305" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E305">
         <v>28984</v>
@@ -16805,10 +17712,13 @@
       <c r="P305">
         <v>9.2395804581838256E-2</v>
       </c>
-    </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q305">
+        <v>2.0230780419916139E-6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>51</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2">
         <v>44875</v>
@@ -16817,7 +17727,7 @@
         <v>509</v>
       </c>
       <c r="D306" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E306">
         <v>27467</v>
@@ -16855,10 +17765,13 @@
       <c r="P306">
         <v>9.3748862271088945E-2</v>
       </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q306">
+        <v>1.161205508796207E-6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>50</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2">
         <v>44876</v>
@@ -16867,7 +17780,7 @@
         <v>510</v>
       </c>
       <c r="D307" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="E307">
         <v>25993</v>
@@ -16905,10 +17818,13 @@
       <c r="P307">
         <v>9.3794483130073478E-2</v>
       </c>
-    </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q307">
+        <v>4.6181028595909128E-7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>49</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2">
         <v>44877</v>
@@ -16917,7 +17833,7 @@
         <v>511</v>
       </c>
       <c r="D308" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E308">
         <v>24660</v>
@@ -16955,10 +17871,13 @@
       <c r="P308">
         <v>9.5539334955393351E-2</v>
       </c>
-    </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q308">
+        <v>4.6517533987571027E-7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>48</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2">
         <v>44878</v>
@@ -16967,7 +17886,7 @@
         <v>512</v>
       </c>
       <c r="D309" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="E309">
         <v>25085</v>
@@ -17005,10 +17924,13 @@
       <c r="P309">
         <v>0.10025911899541561</v>
       </c>
-    </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q309">
+        <v>2.5204460656041701E-6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2">
         <v>44879</v>
@@ -17017,7 +17939,7 @@
         <v>513</v>
       </c>
       <c r="D310" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E310">
         <v>26536</v>
@@ -17055,10 +17977,13 @@
       <c r="P310">
         <v>9.2968043412722343E-2</v>
       </c>
-    </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q310">
+        <v>1.150578618436539E-6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>46</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2">
         <v>44880</v>
@@ -17067,7 +17992,7 @@
         <v>514</v>
       </c>
       <c r="D311" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="E311">
         <v>27475</v>
@@ -17105,10 +18030,13 @@
       <c r="P311">
         <v>9.6451319381255687E-2</v>
       </c>
-    </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q311">
+        <v>7.0651980485732112E-8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2">
         <v>44881</v>
@@ -17117,7 +18045,7 @@
         <v>515</v>
       </c>
       <c r="D312" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="E312">
         <v>25576</v>
@@ -17155,10 +18083,13 @@
       <c r="P312">
         <v>9.9350954019393187E-2</v>
       </c>
-    </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q312">
+        <v>1.943661473167217E-6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2">
         <v>44882</v>
@@ -17167,7 +18098,7 @@
         <v>516</v>
       </c>
       <c r="D313" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="E313">
         <v>27465</v>
@@ -17205,10 +18136,13 @@
       <c r="P313">
         <v>9.2117240123793923E-2</v>
       </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q313">
+        <v>7.2463941640706521E-6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2">
         <v>44883</v>
@@ -17217,7 +18151,7 @@
         <v>517</v>
       </c>
       <c r="D314" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="E314">
         <v>29208</v>
@@ -17255,10 +18189,13 @@
       <c r="P314">
         <v>9.9253629142700625E-2</v>
       </c>
-    </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q314">
+        <v>1.301406783745878E-7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2">
         <v>44884</v>
@@ -17267,7 +18204,7 @@
         <v>518</v>
       </c>
       <c r="D315" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E315">
         <v>24749</v>
@@ -17305,10 +18242,13 @@
       <c r="P315">
         <v>9.6973615095559421E-2</v>
       </c>
-    </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q315">
+        <v>2.8112096373155422E-6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>41</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2">
         <v>44885</v>
@@ -17317,7 +18257,7 @@
         <v>519</v>
       </c>
       <c r="D316" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E316">
         <v>24991</v>
@@ -17355,10 +18295,13 @@
       <c r="P316">
         <v>9.5874514825337126E-2</v>
       </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q316">
+        <v>5.7801697404645993E-6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2">
         <v>44886</v>
@@ -17367,7 +18310,7 @@
         <v>520</v>
       </c>
       <c r="D317" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E317">
         <v>24288</v>
@@ -17405,10 +18348,13 @@
       <c r="P317">
         <v>9.8073122529644272E-2</v>
       </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q317">
+        <v>2.5875494333213931E-8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>39</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2">
         <v>44887</v>
@@ -17417,7 +18363,7 @@
         <v>521</v>
       </c>
       <c r="D318" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E318">
         <v>27437</v>
@@ -17455,10 +18401,13 @@
       <c r="P318">
         <v>9.2357036119109226E-2</v>
       </c>
-    </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q318">
+        <v>2.958923666858483E-6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2">
         <v>44888</v>
@@ -17467,7 +18416,7 @@
         <v>522</v>
       </c>
       <c r="D319" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="E319">
         <v>26663</v>
@@ -17505,10 +18454,13 @@
       <c r="P319">
         <v>9.1925139706709666E-2</v>
       </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q319">
+        <v>3.517211151171405E-6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2">
         <v>44889</v>
@@ -17517,7 +18469,7 @@
         <v>523</v>
       </c>
       <c r="D320" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E320">
         <v>27705</v>
@@ -17555,10 +18507,13 @@
       <c r="P320">
         <v>9.8357697166576427E-2</v>
       </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q320">
+        <v>2.6045030463364589E-6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>36</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2">
         <v>44890</v>
@@ -17567,7 +18522,7 @@
         <v>524</v>
       </c>
       <c r="D321" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E321">
         <v>24197</v>
@@ -17605,10 +18560,13 @@
       <c r="P321">
         <v>9.625160143819482E-2</v>
       </c>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q321">
+        <v>6.6636086655134996E-7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>34</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2">
         <v>44892</v>
@@ -17617,7 +18575,7 @@
         <v>526</v>
       </c>
       <c r="D322" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="E322">
         <v>25206</v>
@@ -17655,10 +18613,13 @@
       <c r="P322">
         <v>9.3469808775688334E-2</v>
       </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q322">
+        <v>1.7972309761574079E-7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>33</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2">
         <v>44893</v>
@@ -17667,7 +18628,7 @@
         <v>527</v>
       </c>
       <c r="D323" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="E323">
         <v>26051</v>
@@ -17705,10 +18666,13 @@
       <c r="P323">
         <v>9.5351426048904078E-2</v>
       </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q323">
+        <v>8.4324672109764172E-7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2">
         <v>44894</v>
@@ -17717,7 +18681,7 @@
         <v>528</v>
       </c>
       <c r="D324" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E324">
         <v>23739</v>
@@ -17755,10 +18719,13 @@
       <c r="P324">
         <v>9.7560975609756101E-2</v>
       </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q324">
+        <v>8.9205878683127737E-8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>30</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2">
         <v>44896</v>
@@ -17767,7 +18734,7 @@
         <v>530</v>
       </c>
       <c r="D325" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E325">
         <v>22628</v>
@@ -17805,10 +18772,13 @@
       <c r="P325">
         <v>9.72246773908432E-2</v>
       </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q325">
+        <v>3.293014204477286E-9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>29</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2">
         <v>44897</v>
@@ -17817,7 +18787,7 @@
         <v>531</v>
       </c>
       <c r="D326" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="E326">
         <v>24646</v>
@@ -17855,10 +18825,13 @@
       <c r="P326">
         <v>9.5066136492737152E-2</v>
       </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q326">
+        <v>1.415962078036794E-6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2">
         <v>44898</v>
@@ -17867,7 +18840,7 @@
         <v>532</v>
       </c>
       <c r="D327" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="E327">
         <v>23873</v>
@@ -17905,10 +18878,13 @@
       <c r="P327">
         <v>9.4667616135383062E-2</v>
       </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q327">
+        <v>1.8146725204424661E-8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>27</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2">
         <v>44899</v>
@@ -17917,7 +18893,7 @@
         <v>533</v>
       </c>
       <c r="D328" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="E328">
         <v>25577</v>
@@ -17955,10 +18931,13 @@
       <c r="P328">
         <v>9.3756109004183449E-2</v>
       </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q328">
+        <v>2.1020019305817278E-6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>26</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2">
         <v>44900</v>
@@ -17967,7 +18946,7 @@
         <v>534</v>
       </c>
       <c r="D329" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="E329">
         <v>23153</v>
@@ -18005,10 +18984,13 @@
       <c r="P329">
         <v>9.5020083790437526E-2</v>
       </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q329">
+        <v>1.102648991685971E-7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>25</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2">
         <v>44901</v>
@@ -18017,7 +18999,7 @@
         <v>535</v>
       </c>
       <c r="D330" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="E330">
         <v>23509</v>
@@ -18055,10 +19037,13 @@
       <c r="P330">
         <v>9.6175932621549193E-2</v>
       </c>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q330">
+        <v>8.2091883903735902E-7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>24</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2">
         <v>44902</v>
@@ -18067,7 +19052,7 @@
         <v>536</v>
       </c>
       <c r="D331" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E331">
         <v>24899</v>
@@ -18105,10 +19090,13 @@
       <c r="P331">
         <v>9.5907466163299732E-2</v>
       </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q331">
+        <v>2.5796982554189689E-6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>23</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2">
         <v>44903</v>
@@ -18117,7 +19105,7 @@
         <v>537</v>
       </c>
       <c r="D332" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="E332">
         <v>21199</v>
@@ -18155,10 +19143,13 @@
       <c r="P332">
         <v>8.7881503844520967E-2</v>
       </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q332">
+        <v>8.5298429349844841E-7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>22</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2">
         <v>44904</v>
@@ -18167,7 +19158,7 @@
         <v>538</v>
       </c>
       <c r="D333" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="E333">
         <v>23640</v>
@@ -18205,10 +19196,13 @@
       <c r="P333">
         <v>9.1582064297800345E-2</v>
       </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q333">
+        <v>1.8140641068523319E-6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>21</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2">
         <v>44905</v>
@@ -18217,7 +19211,7 @@
         <v>539</v>
       </c>
       <c r="D334" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="E334">
         <v>21157</v>
@@ -18255,10 +19249,13 @@
       <c r="P334">
         <v>9.6469253674906649E-2</v>
       </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q334">
+        <v>4.5387951073975401E-8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2">
         <v>44906</v>
@@ -18267,7 +19264,7 @@
         <v>540</v>
       </c>
       <c r="D335" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="E335">
         <v>21947</v>
@@ -18305,10 +19302,13 @@
       <c r="P335">
         <v>9.4545951610698495E-2</v>
       </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q335">
+        <v>8.7090413159715521E-7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2">
         <v>44907</v>
@@ -18317,7 +19317,7 @@
         <v>541</v>
       </c>
       <c r="D336" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="E336">
         <v>22873</v>
@@ -18355,10 +19355,13 @@
       <c r="P336">
         <v>9.3997289380492288E-2</v>
       </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q336">
+        <v>7.1094394879936788E-7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>18</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2">
         <v>44908</v>
@@ -18367,7 +19370,7 @@
         <v>542</v>
       </c>
       <c r="D337" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="E337">
         <v>24101</v>
@@ -18405,10 +19408,13 @@
       <c r="P337">
         <v>9.2278328700053938E-2</v>
       </c>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q337">
+        <v>3.6221471843007451E-6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>17</v>
+        <v>336</v>
       </c>
       <c r="B338" s="2">
         <v>44909</v>
@@ -18417,7 +19423,7 @@
         <v>543</v>
       </c>
       <c r="D338" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="E338">
         <v>20824</v>
@@ -18455,10 +19461,13 @@
       <c r="P338">
         <v>9.8348059930849024E-2</v>
       </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q338">
+        <v>1.340730266861626E-7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>16</v>
+        <v>337</v>
       </c>
       <c r="B339" s="2">
         <v>44910</v>
@@ -18467,7 +19476,7 @@
         <v>544</v>
       </c>
       <c r="D339" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="E339">
         <v>22176</v>
@@ -18505,10 +19514,13 @@
       <c r="P339">
         <v>9.5914502164502161E-2</v>
       </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q339">
+        <v>1.0047627143178491E-6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="B340" s="2">
         <v>44912</v>
@@ -18517,7 +19529,7 @@
         <v>546</v>
       </c>
       <c r="D340" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="E340">
         <v>22336</v>
@@ -18555,10 +19567,13 @@
       <c r="P340">
         <v>9.3481375358166183E-2</v>
       </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q340">
+        <v>5.0155335996875596E-6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>13</v>
+        <v>339</v>
       </c>
       <c r="B341" s="2">
         <v>44913</v>
@@ -18567,7 +19582,7 @@
         <v>547</v>
       </c>
       <c r="D341" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E341">
         <v>22166</v>
@@ -18605,10 +19620,13 @@
       <c r="P341">
         <v>9.5100604529459537E-2</v>
       </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q341">
+        <v>2.3412516000351461E-6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="B342" s="2">
         <v>44914</v>
@@ -18617,7 +19635,7 @@
         <v>548</v>
       </c>
       <c r="D342" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="E342">
         <v>26010</v>
@@ -18655,10 +19673,13 @@
       <c r="P342">
         <v>9.311803152633602E-2</v>
       </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q342">
+        <v>3.5185577178578351E-6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>11</v>
+        <v>341</v>
       </c>
       <c r="B343" s="2">
         <v>44915</v>
@@ -18667,7 +19688,7 @@
         <v>549</v>
       </c>
       <c r="D343" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E343">
         <v>24137</v>
@@ -18705,10 +19726,13 @@
       <c r="P343">
         <v>9.3673613125077687E-2</v>
       </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q343">
+        <v>9.239051031156769E-7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>10</v>
+        <v>342</v>
       </c>
       <c r="B344" s="2">
         <v>44916</v>
@@ -18717,7 +19741,7 @@
         <v>550</v>
       </c>
       <c r="D344" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="E344">
         <v>22180</v>
@@ -18755,10 +19779,13 @@
       <c r="P344">
         <v>9.1794409377817854E-2</v>
       </c>
-    </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q344">
+        <v>7.0222087482776575E-7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>9</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2">
         <v>44917</v>
@@ -18767,7 +19794,7 @@
         <v>551</v>
       </c>
       <c r="D345" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E345">
         <v>20490</v>
@@ -18805,10 +19832,13 @@
       <c r="P345">
         <v>9.9267935578330899E-2</v>
       </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q345">
+        <v>1.0302374874265951E-7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>8</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2">
         <v>44918</v>
@@ -18817,7 +19847,7 @@
         <v>552</v>
       </c>
       <c r="D346" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E346">
         <v>21937</v>
@@ -18855,10 +19885,13 @@
       <c r="P346">
         <v>9.6275698591420891E-2</v>
       </c>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q346">
+        <v>2.343277392565567E-8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>7</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2">
         <v>44919</v>
@@ -18867,7 +19900,7 @@
         <v>553</v>
       </c>
       <c r="D347" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="E347">
         <v>20281</v>
@@ -18905,10 +19938,13 @@
       <c r="P347">
         <v>9.4226122972240034E-2</v>
       </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q347">
+        <v>5.4001472653073377E-7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>6</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2">
         <v>44920</v>
@@ -18917,7 +19953,7 @@
         <v>554</v>
       </c>
       <c r="D348" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="E348">
         <v>15554</v>
@@ -18955,10 +19991,13 @@
       <c r="P348">
         <v>0.10042432814710039</v>
       </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q348">
+        <v>3.1165240619129103E-8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>5</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2">
         <v>44921</v>
@@ -18967,7 +20006,7 @@
         <v>555</v>
       </c>
       <c r="D349" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="E349">
         <v>20011</v>
@@ -19005,10 +20044,13 @@
       <c r="P349">
         <v>0.1020938483833891</v>
       </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q349">
+        <v>4.4422559807461981E-7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>4</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2">
         <v>44922</v>
@@ -19017,7 +20059,7 @@
         <v>556</v>
       </c>
       <c r="D350" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E350">
         <v>20879</v>
@@ -19055,10 +20097,13 @@
       <c r="P350">
         <v>9.636476842760669E-2</v>
       </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q350">
+        <v>2.4965637547606889E-7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>3</v>
+        <v>349</v>
       </c>
       <c r="B351" s="2">
         <v>44923</v>
@@ -19067,7 +20112,7 @@
         <v>557</v>
       </c>
       <c r="D351" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E351">
         <v>20160</v>
@@ -19105,10 +20150,13 @@
       <c r="P351">
         <v>9.6081349206349212E-2</v>
       </c>
-    </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q351">
+        <v>3.937961473091757E-7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>2</v>
+        <v>350</v>
       </c>
       <c r="B352" s="2">
         <v>44924</v>
@@ -19117,7 +20165,7 @@
         <v>558</v>
       </c>
       <c r="D352" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E352">
         <v>20001</v>
@@ -19155,10 +20203,13 @@
       <c r="P352">
         <v>9.5945202739863011E-2</v>
       </c>
-    </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q352">
+        <v>4.4538022879425292E-8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>1</v>
+        <v>351</v>
       </c>
       <c r="B353" s="2">
         <v>44925</v>
@@ -19167,7 +20218,7 @@
         <v>559</v>
       </c>
       <c r="D353" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E353">
         <v>21204</v>
@@ -19205,10 +20256,13 @@
       <c r="P353">
         <v>9.3048481418600268E-2</v>
       </c>
-    </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q353">
+        <v>1.7737215383761479E-6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="B354" s="2">
         <v>44926</v>
@@ -19217,7 +20271,7 @@
         <v>560</v>
       </c>
       <c r="D354" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E354">
         <v>20380</v>
@@ -19254,10 +20308,14 @@
       </c>
       <c r="P354">
         <v>9.317958783120707E-2</v>
+      </c>
+      <c r="Q354">
+        <v>3.796301312606733E-7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>